--- a/ت.قتالى+م.م.xlsx
+++ b/ت.قتالى+م.م.xlsx
@@ -38,6 +38,9 @@
     <t xml:space="preserve">المبلغ</t>
   </si>
   <si>
+    <t xml:space="preserve">التوقيع</t>
+  </si>
+  <si>
     <t xml:space="preserve">ابراهيم احمد احمد عبد الوارث</t>
   </si>
   <si>
@@ -623,6 +626,1886 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
     </font>
   </fonts>
   <fills>
@@ -632,6 +2515,476 @@
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
   <borders>
     <border>
@@ -639,6 +2992,3296 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -647,6 +6290,1416 @@
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="3" fillId="4" borderId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="4" fillId="5" borderId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="14" fillId="15" borderId="14" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="15" fillId="16" borderId="15" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="20" fillId="21" borderId="20" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="21" fillId="22" borderId="21" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="22" fillId="23" borderId="22" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="27" fillId="28" borderId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="28" fillId="29" borderId="28" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="32" fillId="33" borderId="32" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="33" fillId="34" borderId="33" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="34" fillId="35" borderId="34" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="38" fillId="39" borderId="38" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="39" fillId="40" borderId="39" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="40" fillId="41" borderId="40" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="44" fillId="45" borderId="44" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="45" fillId="46" borderId="45" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="46" fillId="47" borderId="46" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="50" fillId="51" borderId="50" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="51" fillId="52" borderId="51" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="52" fillId="53" borderId="52" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="56" fillId="57" borderId="56" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="57" fillId="58" borderId="57" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="58" fillId="59" borderId="58" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="62" fillId="63" borderId="62" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="63" fillId="64" borderId="63" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="64" fillId="65" borderId="64" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="68" fillId="69" borderId="68" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="69" fillId="70" borderId="69" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="70" fillId="71" borderId="70" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="74" fillId="75" borderId="74" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="75" fillId="76" borderId="75" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="76" fillId="77" borderId="76" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="80" fillId="81" borderId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="81" fillId="82" borderId="81" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="82" fillId="83" borderId="82" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="86" fillId="87" borderId="86" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="87" fillId="88" borderId="87" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="88" fillId="89" borderId="88" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="92" fillId="93" borderId="92" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="93" fillId="94" borderId="93" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="94" fillId="95" borderId="94" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="98" fillId="99" borderId="98" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="99" fillId="100" borderId="99" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="100" fillId="101" borderId="100" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="104" fillId="105" borderId="104" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="105" fillId="106" borderId="105" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="106" fillId="107" borderId="106" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="110" fillId="111" borderId="110" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="111" fillId="112" borderId="111" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="112" fillId="113" borderId="112" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="116" fillId="117" borderId="116" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="117" fillId="118" borderId="117" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="118" fillId="119" borderId="118" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="122" fillId="123" borderId="122" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="123" fillId="124" borderId="123" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="124" fillId="125" borderId="124" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="128" fillId="129" borderId="128" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="129" fillId="130" borderId="129" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="130" fillId="131" borderId="130" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="134" fillId="135" borderId="134" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="135" fillId="136" borderId="135" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="136" fillId="137" borderId="136" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="140" fillId="141" borderId="140" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="141" fillId="142" borderId="141" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="142" fillId="143" borderId="142" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="146" fillId="147" borderId="146" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="147" fillId="148" borderId="147" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="148" fillId="149" borderId="148" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="151" fillId="152" borderId="151" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="152" fillId="153" borderId="152" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="153" fillId="154" borderId="153" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="154" fillId="155" borderId="154" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="155" fillId="156" borderId="155" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="157" fillId="158" borderId="157" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="158" fillId="159" borderId="158" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="159" fillId="160" borderId="159" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="160" fillId="161" borderId="160" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="161" fillId="162" borderId="161" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="163" fillId="164" borderId="163" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="164" fillId="165" borderId="164" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="165" fillId="166" borderId="165" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="166" fillId="167" borderId="166" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="167" fillId="168" borderId="167" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="169" fillId="170" borderId="169" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="170" fillId="171" borderId="170" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="171" fillId="172" borderId="171" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="172" fillId="173" borderId="172" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="173" fillId="174" borderId="173" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="175" fillId="176" borderId="175" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="176" fillId="177" borderId="176" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="177" fillId="178" borderId="177" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="178" fillId="179" borderId="178" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="179" fillId="180" borderId="179" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="181" fillId="182" borderId="181" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="182" fillId="183" borderId="182" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="183" fillId="184" borderId="183" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="184" fillId="185" borderId="184" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="185" fillId="186" borderId="185" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="187" fillId="188" borderId="187" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="188" fillId="189" borderId="188" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="189" fillId="190" borderId="189" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="190" fillId="191" borderId="190" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="191" fillId="192" borderId="191" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="193" fillId="194" borderId="193" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="194" fillId="195" borderId="194" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="195" fillId="196" borderId="195" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="196" fillId="197" borderId="196" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="197" fillId="198" borderId="197" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="199" fillId="200" borderId="199" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="200" fillId="201" borderId="200" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="201" fillId="202" borderId="201" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="202" fillId="203" borderId="202" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="203" fillId="204" borderId="203" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="205" fillId="206" borderId="205" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="206" fillId="207" borderId="206" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="207" fillId="208" borderId="207" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="208" fillId="209" borderId="208" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="209" fillId="210" borderId="209" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="211" fillId="212" borderId="211" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="212" fillId="213" borderId="212" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="213" fillId="214" borderId="213" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="214" fillId="215" borderId="214" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="215" fillId="216" borderId="215" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="217" fillId="218" borderId="217" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="218" fillId="219" borderId="218" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="219" fillId="220" borderId="219" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="220" fillId="221" borderId="220" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="221" fillId="222" borderId="221" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="223" fillId="224" borderId="223" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="224" fillId="225" borderId="224" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="225" fillId="226" borderId="225" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="226" fillId="227" borderId="226" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="227" fillId="228" borderId="227" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="229" fillId="230" borderId="229" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="230" fillId="231" borderId="230" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="231" fillId="232" borderId="231" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="232" fillId="233" borderId="232" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="233" fillId="234" borderId="233" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="235" fillId="236" borderId="235" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="236" fillId="237" borderId="236" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="237" fillId="238" borderId="237" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="238" fillId="239" borderId="238" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="239" fillId="240" borderId="239" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="241" fillId="242" borderId="241" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="242" fillId="243" borderId="242" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="243" fillId="244" borderId="243" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="244" fillId="245" borderId="244" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="245" fillId="246" borderId="245" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="247" fillId="248" borderId="247" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="248" fillId="249" borderId="248" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="249" fillId="250" borderId="249" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="250" fillId="251" borderId="250" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="251" fillId="252" borderId="251" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="252" fillId="253" borderId="252" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="253" fillId="254" borderId="253" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="254" fillId="255" borderId="254" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="255" fillId="256" borderId="255" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="256" fillId="257" borderId="256" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="257" fillId="258" borderId="257" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="258" fillId="259" borderId="258" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="259" fillId="260" borderId="259" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="260" fillId="261" borderId="260" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="261" fillId="262" borderId="261" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="262" fillId="263" borderId="262" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="263" fillId="264" borderId="263" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="264" fillId="265" borderId="264" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="265" fillId="266" borderId="265" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="266" fillId="267" borderId="266" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="267" fillId="268" borderId="267" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="268" fillId="269" borderId="268" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="269" fillId="270" borderId="269" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="270" fillId="271" borderId="270" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="271" fillId="272" borderId="271" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="272" fillId="273" borderId="272" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="273" fillId="274" borderId="273" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="274" fillId="275" borderId="274" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="275" fillId="276" borderId="275" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="276" fillId="277" borderId="276" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="277" fillId="278" borderId="277" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="278" fillId="279" borderId="278" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="279" fillId="280" borderId="279" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="280" fillId="281" borderId="280" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="281" fillId="282" borderId="281" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="282" fillId="283" borderId="282" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="283" fillId="284" borderId="283" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="284" fillId="285" borderId="284" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="285" fillId="286" borderId="285" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="286" fillId="287" borderId="286" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="287" fillId="288" borderId="287" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="288" fillId="289" borderId="288" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="289" fillId="290" borderId="289" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="290" fillId="291" borderId="290" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="291" fillId="292" borderId="291" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="292" fillId="293" borderId="292" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="293" fillId="294" borderId="293" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="294" fillId="295" borderId="294" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="295" fillId="296" borderId="295" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="296" fillId="297" borderId="296" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="297" fillId="298" borderId="297" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="298" fillId="299" borderId="298" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="299" fillId="300" borderId="299" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="300" fillId="301" borderId="300" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="301" fillId="302" borderId="301" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="302" fillId="303" borderId="302" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="303" fillId="304" borderId="303" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="304" fillId="305" borderId="304" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="305" fillId="306" borderId="305" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="306" fillId="307" borderId="306" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="307" fillId="308" borderId="307" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="308" fillId="309" borderId="308" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="309" fillId="310" borderId="309" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="310" fillId="311" borderId="310" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="311" fillId="312" borderId="311" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="312" fillId="313" borderId="312" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="313" fillId="314" borderId="313" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="314" fillId="315" borderId="314" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="315" fillId="316" borderId="315" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="316" fillId="317" borderId="316" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="317" fillId="318" borderId="317" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="318" fillId="319" borderId="318" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="319" fillId="320" borderId="319" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="320" fillId="321" borderId="320" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="321" fillId="322" borderId="321" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="322" fillId="323" borderId="322" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="323" fillId="324" borderId="323" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="324" fillId="325" borderId="324" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="325" fillId="326" borderId="325" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="326" fillId="327" borderId="326" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="327" fillId="328" borderId="327" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="328" fillId="329" borderId="328" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="329" fillId="330" borderId="329" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="330" fillId="331" borderId="330" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="331" fillId="332" borderId="331" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="332" fillId="333" borderId="332" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="333" fillId="334" borderId="333" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="334" fillId="335" borderId="334" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="335" fillId="336" borderId="335" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="336" fillId="337" borderId="336" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="337" fillId="338" borderId="337" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="338" fillId="339" borderId="338" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="339" fillId="340" borderId="339" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="340" fillId="341" borderId="340" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="341" fillId="342" borderId="341" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="342" fillId="343" borderId="342" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="343" fillId="344" borderId="343" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="344" fillId="345" borderId="344" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="345" fillId="346" borderId="345" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="346" fillId="347" borderId="346" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="347" fillId="348" borderId="347" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="348" fillId="349" borderId="348" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="349" fillId="350" borderId="349" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="350" fillId="351" borderId="350" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="351" fillId="352" borderId="351" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="352" fillId="353" borderId="352" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="353" fillId="354" borderId="353" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="354" fillId="355" borderId="354" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="355" fillId="356" borderId="355" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="356" fillId="357" borderId="356" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="357" fillId="358" borderId="357" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="358" fillId="359" borderId="358" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="359" fillId="360" borderId="359" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="360" fillId="361" borderId="360" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="361" fillId="362" borderId="361" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="362" fillId="363" borderId="362" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="363" fillId="364" borderId="363" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="364" fillId="365" borderId="364" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="365" fillId="366" borderId="365" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="366" fillId="367" borderId="366" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="367" fillId="368" borderId="367" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="368" fillId="369" borderId="368" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="369" fillId="370" borderId="369" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="370" fillId="371" borderId="370" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="371" fillId="372" borderId="371" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="372" fillId="373" borderId="372" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="373" fillId="374" borderId="373" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="374" fillId="375" borderId="374" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="375" fillId="376" borderId="375" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="376" fillId="377" borderId="376" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="377" fillId="378" borderId="377" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="378" fillId="379" borderId="378" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="379" fillId="380" borderId="379" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="380" fillId="381" borderId="380" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="381" fillId="382" borderId="381" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="382" fillId="383" borderId="382" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="383" fillId="384" borderId="383" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="384" fillId="385" borderId="384" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="385" fillId="386" borderId="385" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="386" fillId="387" borderId="386" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="387" fillId="388" borderId="387" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="388" fillId="389" borderId="388" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="389" fillId="390" borderId="389" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="390" fillId="391" borderId="390" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="391" fillId="392" borderId="391" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="392" fillId="393" borderId="392" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="393" fillId="394" borderId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="394" fillId="395" borderId="394" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="395" fillId="396" borderId="395" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="396" fillId="397" borderId="396" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="397" fillId="398" borderId="397" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="398" fillId="399" borderId="398" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="399" fillId="400" borderId="399" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="400" fillId="401" borderId="400" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="401" fillId="402" borderId="401" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="402" fillId="403" borderId="402" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="403" fillId="404" borderId="403" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="404" fillId="405" borderId="404" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="405" fillId="406" borderId="405" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="406" fillId="407" borderId="406" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="407" fillId="408" borderId="407" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="408" fillId="409" borderId="408" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="409" fillId="410" borderId="409" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="410" fillId="411" borderId="410" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="411" fillId="412" borderId="411" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="412" fillId="413" borderId="412" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="413" fillId="414" borderId="413" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="414" fillId="415" borderId="414" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="415" fillId="416" borderId="415" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="416" fillId="417" borderId="416" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="417" fillId="418" borderId="417" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="418" fillId="419" borderId="418" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="419" fillId="420" borderId="419" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="420" fillId="421" borderId="420" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="421" fillId="422" borderId="421" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="422" fillId="423" borderId="422" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="423" fillId="424" borderId="423" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="424" fillId="425" borderId="424" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="425" fillId="426" borderId="425" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="426" fillId="427" borderId="426" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="427" fillId="428" borderId="427" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="428" fillId="429" borderId="428" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="429" fillId="430" borderId="429" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="430" fillId="431" borderId="430" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="431" fillId="432" borderId="431" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="432" fillId="433" borderId="432" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="433" fillId="434" borderId="433" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="434" fillId="435" borderId="434" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="435" fillId="436" borderId="435" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="436" fillId="437" borderId="436" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="437" fillId="438" borderId="437" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="438" fillId="439" borderId="438" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="439" fillId="440" borderId="439" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="440" fillId="441" borderId="440" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="441" fillId="442" borderId="441" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="442" fillId="443" borderId="442" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="443" fillId="444" borderId="443" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="444" fillId="445" borderId="444" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="445" fillId="446" borderId="445" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="446" fillId="447" borderId="446" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="447" fillId="448" borderId="447" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="448" fillId="449" borderId="448" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="449" fillId="450" borderId="449" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="450" fillId="451" borderId="450" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="451" fillId="452" borderId="451" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="452" fillId="453" borderId="452" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="453" fillId="454" borderId="453" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="454" fillId="455" borderId="454" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="455" fillId="456" borderId="455" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="456" fillId="457" borderId="456" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="457" fillId="458" borderId="457" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="458" fillId="459" borderId="458" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="459" fillId="460" borderId="459" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="460" fillId="461" borderId="460" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="461" fillId="462" borderId="461" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="462" fillId="463" borderId="462" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="463" fillId="464" borderId="463" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="464" fillId="465" borderId="464" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="465" fillId="466" borderId="465" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="466" fillId="467" borderId="466" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="467" fillId="468" borderId="467" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="468" fillId="469" borderId="468" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="469" fillId="470" borderId="469" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="470" fillId="471" borderId="470" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,1344 +7990,1442 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="C2" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9">
         <v>331.37</v>
       </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
+      <c r="D3" s="14">
         <v>331.37</v>
       </c>
+      <c r="E3" s="15"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="s" s="17">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19">
         <v>331.37</v>
       </c>
+      <c r="E4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="s" s="22">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="23">
+        <v>7</v>
+      </c>
+      <c r="D5" s="24">
         <v>331.37</v>
       </c>
+      <c r="E5" s="25"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s" s="26">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="s" s="27">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="28">
+        <v>7</v>
+      </c>
+      <c r="D6" s="29">
         <v>331.37</v>
       </c>
+      <c r="E6" s="30"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s" s="31">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="s" s="32">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="33">
+        <v>7</v>
+      </c>
+      <c r="D7" s="34">
         <v>331.37</v>
       </c>
+      <c r="E7" s="35"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s" s="36">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
+      <c r="B8" t="s" s="37">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="38">
+        <v>7</v>
+      </c>
+      <c r="D8" s="39">
         <v>331.37</v>
       </c>
+      <c r="E8" s="40"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" t="s" s="41">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="s" s="42">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="43">
+        <v>7</v>
+      </c>
+      <c r="D9" s="44">
         <v>331.37</v>
       </c>
+      <c r="E9" s="45"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" t="s" s="46">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
+      <c r="B10" t="s" s="47">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s" s="48">
+        <v>7</v>
+      </c>
+      <c r="D10" s="49">
         <v>331.37</v>
       </c>
+      <c r="E10" s="50"/>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s" s="51">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
+      <c r="B11" t="s" s="52">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="53">
+        <v>7</v>
+      </c>
+      <c r="D11" s="54">
         <v>331.37</v>
       </c>
+      <c r="E11" s="55"/>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s" s="56">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
+      <c r="B12" t="s" s="57">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s" s="58">
+        <v>7</v>
+      </c>
+      <c r="D12" s="59">
         <v>331.37</v>
       </c>
+      <c r="E12" s="60"/>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s" s="61">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
+      <c r="B13" t="s" s="62">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="63">
+        <v>7</v>
+      </c>
+      <c r="D13" s="64">
         <v>331.37</v>
       </c>
+      <c r="E13" s="65"/>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s" s="66">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
+      <c r="B14" t="s" s="67">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s" s="68">
+        <v>7</v>
+      </c>
+      <c r="D14" s="69">
         <v>331.37</v>
       </c>
+      <c r="E14" s="70"/>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" t="s" s="71">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
+      <c r="B15" t="s" s="72">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s" s="73">
+        <v>7</v>
+      </c>
+      <c r="D15" s="74">
         <v>331.37</v>
       </c>
+      <c r="E15" s="75"/>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" t="s" s="76">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
+      <c r="B16" t="s" s="77">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s" s="78">
+        <v>7</v>
+      </c>
+      <c r="D16" s="79">
         <v>331.37</v>
       </c>
+      <c r="E16" s="80"/>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" t="s" s="81">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
+      <c r="B17" t="s" s="82">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s" s="83">
+        <v>7</v>
+      </c>
+      <c r="D17" s="84">
         <v>331.37</v>
       </c>
+      <c r="E17" s="85"/>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" t="s" s="86">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
+      <c r="B18" t="s" s="87">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s" s="88">
+        <v>7</v>
+      </c>
+      <c r="D18" s="89">
         <v>331.37</v>
       </c>
+      <c r="E18" s="90"/>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" t="s" s="91">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
+      <c r="B19" t="s" s="92">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s" s="93">
+        <v>7</v>
+      </c>
+      <c r="D19" s="94">
         <v>331.37</v>
       </c>
+      <c r="E19" s="95"/>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" t="s" s="96">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
+      <c r="B20" t="s" s="97">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s" s="98">
+        <v>7</v>
+      </c>
+      <c r="D20" s="99">
         <v>331.37</v>
       </c>
+      <c r="E20" s="100"/>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" t="s" s="101">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
+      <c r="B21" t="s" s="102">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s" s="103">
+        <v>7</v>
+      </c>
+      <c r="D21" s="104">
         <v>331.37</v>
       </c>
+      <c r="E21" s="105"/>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" t="s" s="106">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
+      <c r="B22" t="s" s="107">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s" s="108">
+        <v>7</v>
+      </c>
+      <c r="D22" s="109">
         <v>331.37</v>
       </c>
+      <c r="E22" s="110"/>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" t="s" s="111">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
+      <c r="B23" t="s" s="112">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s" s="113">
+        <v>7</v>
+      </c>
+      <c r="D23" s="114">
         <v>331.37</v>
       </c>
+      <c r="E23" s="115"/>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" t="s" s="116">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
+      <c r="B24" t="s" s="117">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s" s="118">
+        <v>7</v>
+      </c>
+      <c r="D24" s="119">
         <v>331.37</v>
       </c>
+      <c r="E24" s="120"/>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" t="s" s="121">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
+      <c r="B25" t="s" s="122">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s" s="123">
+        <v>7</v>
+      </c>
+      <c r="D25" s="124">
         <v>331.37</v>
       </c>
+      <c r="E25" s="125"/>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" t="s" s="126">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
+      <c r="B26" t="s" s="127">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s" s="128">
+        <v>7</v>
+      </c>
+      <c r="D26" s="129">
         <v>331.37</v>
       </c>
+      <c r="E26" s="130"/>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" t="s" s="131">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
+      <c r="B27" t="s" s="132">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s" s="133">
+        <v>7</v>
+      </c>
+      <c r="D27" s="134">
         <v>331.37</v>
       </c>
+      <c r="E27" s="135"/>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" t="s" s="136">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
+      <c r="B28" t="s" s="137">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s" s="138">
+        <v>7</v>
+      </c>
+      <c r="D28" s="139">
         <v>331.37</v>
       </c>
+      <c r="E28" s="140"/>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" t="s" s="141">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29">
+      <c r="B29" t="s" s="142">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s" s="143">
+        <v>7</v>
+      </c>
+      <c r="D29" s="144">
         <v>331.37</v>
       </c>
+      <c r="E29" s="145"/>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" t="s" s="146">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
+      <c r="B30" t="s" s="147">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s" s="148">
+        <v>7</v>
+      </c>
+      <c r="D30" s="149">
         <v>331.37</v>
       </c>
+      <c r="E30" s="150"/>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" t="s" s="151">
         <v>64</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31">
+      <c r="B31" t="s" s="152">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s" s="153">
+        <v>7</v>
+      </c>
+      <c r="D31" s="154">
         <v>331.37</v>
       </c>
+      <c r="E31" s="155"/>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" t="s" s="156">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32">
+      <c r="B32" t="s" s="157">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s" s="158">
+        <v>7</v>
+      </c>
+      <c r="D32" s="159">
         <v>331.37</v>
       </c>
+      <c r="E32" s="160"/>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" t="s" s="161">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33">
+      <c r="B33" t="s" s="162">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s" s="163">
+        <v>7</v>
+      </c>
+      <c r="D33" s="164">
         <v>667.59</v>
       </c>
+      <c r="E33" s="165"/>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" t="s" s="166">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34">
+      <c r="B34" t="s" s="167">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s" s="168">
+        <v>7</v>
+      </c>
+      <c r="D34" s="169">
         <v>331.37</v>
       </c>
+      <c r="E34" s="170"/>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" t="s" s="171">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
+      <c r="B35" t="s" s="172">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s" s="173">
+        <v>7</v>
+      </c>
+      <c r="D35" s="174">
         <v>331.37</v>
       </c>
+      <c r="E35" s="175"/>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" t="s" s="176">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36">
+      <c r="B36" t="s" s="177">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s" s="178">
+        <v>7</v>
+      </c>
+      <c r="D36" s="179">
         <v>331.37</v>
       </c>
+      <c r="E36" s="180"/>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" t="s" s="181">
         <v>76</v>
       </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37">
+      <c r="B37" t="s" s="182">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s" s="183">
+        <v>7</v>
+      </c>
+      <c r="D37" s="184">
         <v>331.37</v>
       </c>
+      <c r="E37" s="185"/>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" t="s" s="186">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38">
+      <c r="B38" t="s" s="187">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s" s="188">
+        <v>7</v>
+      </c>
+      <c r="D38" s="189">
         <v>331.37</v>
       </c>
+      <c r="E38" s="190"/>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" t="s" s="191">
         <v>80</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39">
+      <c r="B39" t="s" s="192">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s" s="193">
+        <v>7</v>
+      </c>
+      <c r="D39" s="194">
         <v>331.37</v>
       </c>
+      <c r="E39" s="195"/>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" t="s" s="196">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40">
+      <c r="B40" t="s" s="197">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s" s="198">
+        <v>7</v>
+      </c>
+      <c r="D40" s="199">
         <v>331.37</v>
       </c>
+      <c r="E40" s="200"/>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" t="s" s="201">
         <v>84</v>
       </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41">
+      <c r="B41" t="s" s="202">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s" s="203">
+        <v>7</v>
+      </c>
+      <c r="D41" s="204">
         <v>331.37</v>
       </c>
+      <c r="E41" s="205"/>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" t="s" s="206">
         <v>86</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42">
+      <c r="B42" t="s" s="207">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s" s="208">
+        <v>7</v>
+      </c>
+      <c r="D42" s="209">
         <v>331.37</v>
       </c>
+      <c r="E42" s="210"/>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" t="s" s="211">
         <v>88</v>
       </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43">
+      <c r="B43" t="s" s="212">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s" s="213">
+        <v>7</v>
+      </c>
+      <c r="D43" s="214">
         <v>331.37</v>
       </c>
+      <c r="E43" s="215"/>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" t="s" s="216">
         <v>90</v>
       </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44">
+      <c r="B44" t="s" s="217">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s" s="218">
+        <v>7</v>
+      </c>
+      <c r="D44" s="219">
         <v>331.37</v>
       </c>
+      <c r="E44" s="220"/>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" t="s" s="221">
         <v>92</v>
       </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45">
+      <c r="B45" t="s" s="222">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s" s="223">
+        <v>7</v>
+      </c>
+      <c r="D45" s="224">
         <v>331.37</v>
       </c>
+      <c r="E45" s="225"/>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" t="s" s="226">
         <v>94</v>
       </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
+      <c r="B46" t="s" s="227">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s" s="228">
+        <v>7</v>
+      </c>
+      <c r="D46" s="229">
         <v>331.37</v>
       </c>
+      <c r="E46" s="230"/>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" t="s" s="231">
         <v>96</v>
       </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47">
+      <c r="B47" t="s" s="232">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s" s="233">
+        <v>7</v>
+      </c>
+      <c r="D47" s="234">
         <v>331.37</v>
       </c>
+      <c r="E47" s="235"/>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" t="s" s="236">
         <v>98</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48">
+      <c r="B48" t="s" s="237">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s" s="238">
+        <v>7</v>
+      </c>
+      <c r="D48" s="239">
         <v>331.37</v>
       </c>
+      <c r="E48" s="240"/>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" t="s" s="241">
         <v>100</v>
       </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49">
+      <c r="B49" t="s" s="242">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s" s="243">
+        <v>7</v>
+      </c>
+      <c r="D49" s="244">
         <v>331.37</v>
       </c>
+      <c r="E49" s="245"/>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" t="s" s="246">
         <v>102</v>
       </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50">
+      <c r="B50" t="s" s="247">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s" s="248">
+        <v>7</v>
+      </c>
+      <c r="D50" s="249">
         <v>331.37</v>
       </c>
+      <c r="E50" s="250"/>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" t="s" s="251">
         <v>104</v>
       </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51">
+      <c r="B51" t="s" s="252">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s" s="253">
+        <v>7</v>
+      </c>
+      <c r="D51" s="254">
         <v>331.37</v>
       </c>
+      <c r="E51" s="255"/>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" t="s" s="256">
         <v>106</v>
       </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52">
+      <c r="B52" t="s" s="257">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s" s="258">
+        <v>7</v>
+      </c>
+      <c r="D52" s="259">
         <v>331.37</v>
       </c>
+      <c r="E52" s="260"/>
     </row>
     <row r="53">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" t="s" s="261">
         <v>108</v>
       </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53">
+      <c r="B53" t="s" s="262">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s" s="263">
+        <v>7</v>
+      </c>
+      <c r="D53" s="264">
         <v>331.37</v>
       </c>
+      <c r="E53" s="265"/>
     </row>
     <row r="54">
-      <c r="A54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" t="s" s="266">
         <v>110</v>
       </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54">
+      <c r="B54" t="s" s="267">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s" s="268">
+        <v>7</v>
+      </c>
+      <c r="D54" s="269">
         <v>331.37</v>
       </c>
+      <c r="E54" s="270"/>
     </row>
     <row r="55">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" t="s" s="271">
         <v>112</v>
       </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55">
+      <c r="B55" t="s" s="272">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s" s="273">
+        <v>7</v>
+      </c>
+      <c r="D55" s="274">
         <v>331.37</v>
       </c>
+      <c r="E55" s="275"/>
     </row>
     <row r="56">
-      <c r="A56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" t="s" s="276">
         <v>114</v>
       </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56">
+      <c r="B56" t="s" s="277">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s" s="278">
+        <v>7</v>
+      </c>
+      <c r="D56" s="279">
         <v>331.37</v>
       </c>
+      <c r="E56" s="280"/>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" t="s" s="281">
         <v>116</v>
       </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57">
+      <c r="B57" t="s" s="282">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s" s="283">
+        <v>7</v>
+      </c>
+      <c r="D57" s="284">
         <v>331.37</v>
       </c>
+      <c r="E57" s="285"/>
     </row>
     <row r="58">
-      <c r="A58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" t="s" s="286">
         <v>118</v>
       </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58">
+      <c r="B58" t="s" s="287">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s" s="288">
+        <v>7</v>
+      </c>
+      <c r="D58" s="289">
         <v>331.37</v>
       </c>
+      <c r="E58" s="290"/>
     </row>
     <row r="59">
-      <c r="A59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" t="s" s="291">
         <v>120</v>
       </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59">
+      <c r="B59" t="s" s="292">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s" s="293">
+        <v>7</v>
+      </c>
+      <c r="D59" s="294">
         <v>331.37</v>
       </c>
+      <c r="E59" s="295"/>
     </row>
     <row r="60">
-      <c r="A60" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" t="s" s="296">
         <v>122</v>
       </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60">
+      <c r="B60" t="s" s="297">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s" s="298">
+        <v>7</v>
+      </c>
+      <c r="D60" s="299">
         <v>331.37</v>
       </c>
+      <c r="E60" s="300"/>
     </row>
     <row r="61">
-      <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" t="s" s="301">
         <v>124</v>
       </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61">
+      <c r="B61" t="s" s="302">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s" s="303">
+        <v>7</v>
+      </c>
+      <c r="D61" s="304">
         <v>331.37</v>
       </c>
+      <c r="E61" s="305"/>
     </row>
     <row r="62">
-      <c r="A62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" t="s" s="306">
         <v>126</v>
       </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62">
+      <c r="B62" t="s" s="307">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s" s="308">
+        <v>7</v>
+      </c>
+      <c r="D62" s="309">
         <v>331.37</v>
       </c>
+      <c r="E62" s="310"/>
     </row>
     <row r="63">
-      <c r="A63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" t="s" s="311">
         <v>128</v>
       </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63">
+      <c r="B63" t="s" s="312">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s" s="313">
+        <v>7</v>
+      </c>
+      <c r="D63" s="314">
         <v>331.37</v>
       </c>
+      <c r="E63" s="315"/>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" t="s" s="316">
         <v>130</v>
       </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64">
+      <c r="B64" t="s" s="317">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s" s="318">
+        <v>7</v>
+      </c>
+      <c r="D64" s="319">
         <v>331.37</v>
       </c>
+      <c r="E64" s="320"/>
     </row>
     <row r="65">
-      <c r="A65" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" t="s" s="321">
         <v>132</v>
       </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65">
+      <c r="B65" t="s" s="322">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s" s="323">
+        <v>7</v>
+      </c>
+      <c r="D65" s="324">
         <v>331.37</v>
       </c>
+      <c r="E65" s="325"/>
     </row>
     <row r="66">
-      <c r="A66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A66" t="s" s="326">
         <v>134</v>
       </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66">
+      <c r="B66" t="s" s="327">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s" s="328">
+        <v>7</v>
+      </c>
+      <c r="D66" s="329">
         <v>331.37</v>
       </c>
+      <c r="E66" s="330"/>
     </row>
     <row r="67">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" t="s" s="331">
         <v>136</v>
       </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67">
+      <c r="B67" t="s" s="332">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s" s="333">
+        <v>7</v>
+      </c>
+      <c r="D67" s="334">
         <v>331.37</v>
       </c>
+      <c r="E67" s="335"/>
     </row>
     <row r="68">
-      <c r="A68" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="A68" t="s" s="336">
         <v>138</v>
       </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68">
+      <c r="B68" t="s" s="337">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s" s="338">
+        <v>7</v>
+      </c>
+      <c r="D68" s="339">
         <v>331.37</v>
       </c>
+      <c r="E68" s="340"/>
     </row>
     <row r="69">
-      <c r="A69" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="A69" t="s" s="341">
         <v>140</v>
       </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69">
+      <c r="B69" t="s" s="342">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s" s="343">
+        <v>7</v>
+      </c>
+      <c r="D69" s="344">
         <v>331.37</v>
       </c>
+      <c r="E69" s="345"/>
     </row>
     <row r="70">
-      <c r="A70" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="A70" t="s" s="346">
         <v>142</v>
       </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70">
+      <c r="B70" t="s" s="347">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s" s="348">
+        <v>7</v>
+      </c>
+      <c r="D70" s="349">
         <v>331.37</v>
       </c>
+      <c r="E70" s="350"/>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" t="s" s="351">
         <v>144</v>
       </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71">
+      <c r="B71" t="s" s="352">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s" s="353">
+        <v>7</v>
+      </c>
+      <c r="D71" s="354">
         <v>331.37</v>
       </c>
+      <c r="E71" s="355"/>
     </row>
     <row r="72">
-      <c r="A72" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" t="s" s="356">
         <v>146</v>
       </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72">
+      <c r="B72" t="s" s="357">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s" s="358">
+        <v>7</v>
+      </c>
+      <c r="D72" s="359">
         <v>331.37</v>
       </c>
+      <c r="E72" s="360"/>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" t="s" s="361">
         <v>148</v>
       </c>
-      <c r="C73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73">
+      <c r="B73" t="s" s="362">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s" s="363">
+        <v>7</v>
+      </c>
+      <c r="D73" s="364">
         <v>331.37</v>
       </c>
+      <c r="E73" s="365"/>
     </row>
     <row r="74">
-      <c r="A74" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="A74" t="s" s="366">
         <v>150</v>
       </c>
-      <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74">
+      <c r="B74" t="s" s="367">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s" s="368">
+        <v>7</v>
+      </c>
+      <c r="D74" s="369">
         <v>331.37</v>
       </c>
+      <c r="E74" s="370"/>
     </row>
     <row r="75">
-      <c r="A75" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" t="s" s="371">
         <v>152</v>
       </c>
-      <c r="C75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75">
+      <c r="B75" t="s" s="372">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s" s="373">
+        <v>7</v>
+      </c>
+      <c r="D75" s="374">
         <v>331.37</v>
       </c>
+      <c r="E75" s="375"/>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="A76" t="s" s="376">
         <v>154</v>
       </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76">
+      <c r="B76" t="s" s="377">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s" s="378">
+        <v>7</v>
+      </c>
+      <c r="D76" s="379">
         <v>331.37</v>
       </c>
+      <c r="E76" s="380"/>
     </row>
     <row r="77">
-      <c r="A77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" t="s" s="381">
         <v>156</v>
       </c>
-      <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77">
+      <c r="B77" t="s" s="382">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s" s="383">
+        <v>7</v>
+      </c>
+      <c r="D77" s="384">
         <v>331.37</v>
       </c>
+      <c r="E77" s="385"/>
     </row>
     <row r="78">
-      <c r="A78" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" t="s" s="386">
         <v>158</v>
       </c>
-      <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78">
+      <c r="B78" t="s" s="387">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s" s="388">
+        <v>7</v>
+      </c>
+      <c r="D78" s="389">
         <v>331.37</v>
       </c>
+      <c r="E78" s="390"/>
     </row>
     <row r="79">
-      <c r="A79" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="A79" t="s" s="391">
         <v>160</v>
       </c>
-      <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79">
+      <c r="B79" t="s" s="392">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s" s="393">
+        <v>7</v>
+      </c>
+      <c r="D79" s="394">
         <v>331.37</v>
       </c>
+      <c r="E79" s="395"/>
     </row>
     <row r="80">
-      <c r="A80" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" t="s" s="396">
         <v>162</v>
       </c>
-      <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80">
+      <c r="B80" t="s" s="397">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s" s="398">
+        <v>7</v>
+      </c>
+      <c r="D80" s="399">
         <v>331.37</v>
       </c>
+      <c r="E80" s="400"/>
     </row>
     <row r="81">
-      <c r="A81" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" t="s" s="401">
         <v>164</v>
       </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81">
+      <c r="B81" t="s" s="402">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s" s="403">
+        <v>7</v>
+      </c>
+      <c r="D81" s="404">
         <v>331.37</v>
       </c>
+      <c r="E81" s="405"/>
     </row>
     <row r="82">
-      <c r="A82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="A82" t="s" s="406">
         <v>166</v>
       </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82">
+      <c r="B82" t="s" s="407">
+        <v>167</v>
+      </c>
+      <c r="C82" t="s" s="408">
+        <v>7</v>
+      </c>
+      <c r="D82" s="409">
         <v>331.37</v>
       </c>
+      <c r="E82" s="410"/>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" t="s" s="411">
         <v>168</v>
       </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83">
+      <c r="B83" t="s" s="412">
+        <v>169</v>
+      </c>
+      <c r="C83" t="s" s="413">
+        <v>7</v>
+      </c>
+      <c r="D83" s="414">
         <v>331.37</v>
       </c>
+      <c r="E83" s="415"/>
     </row>
     <row r="84">
-      <c r="A84" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" t="s" s="416">
         <v>170</v>
       </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84">
+      <c r="B84" t="s" s="417">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s" s="418">
+        <v>7</v>
+      </c>
+      <c r="D84" s="419">
         <v>331.37</v>
       </c>
+      <c r="E84" s="420"/>
     </row>
     <row r="85">
-      <c r="A85" t="s">
-        <v>171</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" t="s" s="421">
         <v>172</v>
       </c>
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85">
+      <c r="B85" t="s" s="422">
+        <v>173</v>
+      </c>
+      <c r="C85" t="s" s="423">
+        <v>7</v>
+      </c>
+      <c r="D85" s="424">
         <v>331.37</v>
       </c>
+      <c r="E85" s="425"/>
     </row>
     <row r="86">
-      <c r="A86" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="A86" t="s" s="426">
         <v>174</v>
       </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86">
+      <c r="B86" t="s" s="427">
+        <v>175</v>
+      </c>
+      <c r="C86" t="s" s="428">
+        <v>7</v>
+      </c>
+      <c r="D86" s="429">
         <v>331.37</v>
       </c>
+      <c r="E86" s="430"/>
     </row>
     <row r="87">
-      <c r="A87" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="A87" t="s" s="431">
         <v>176</v>
       </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87">
+      <c r="B87" t="s" s="432">
+        <v>177</v>
+      </c>
+      <c r="C87" t="s" s="433">
+        <v>7</v>
+      </c>
+      <c r="D87" s="434">
         <v>331.37</v>
       </c>
+      <c r="E87" s="435"/>
     </row>
     <row r="88">
-      <c r="A88" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="A88" t="s" s="436">
         <v>178</v>
       </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88">
+      <c r="B88" t="s" s="437">
+        <v>179</v>
+      </c>
+      <c r="C88" t="s" s="438">
+        <v>7</v>
+      </c>
+      <c r="D88" s="439">
         <v>331.37</v>
       </c>
+      <c r="E88" s="440"/>
     </row>
     <row r="89">
-      <c r="A89" t="s">
-        <v>179</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A89" t="s" s="441">
         <v>180</v>
       </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89">
+      <c r="B89" t="s" s="442">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s" s="443">
+        <v>7</v>
+      </c>
+      <c r="D89" s="444">
         <v>331.37</v>
       </c>
+      <c r="E89" s="445"/>
     </row>
     <row r="90">
-      <c r="A90" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="A90" t="s" s="446">
         <v>182</v>
       </c>
-      <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90">
+      <c r="B90" t="s" s="447">
+        <v>183</v>
+      </c>
+      <c r="C90" t="s" s="448">
+        <v>7</v>
+      </c>
+      <c r="D90" s="449">
         <v>331.37</v>
       </c>
+      <c r="E90" s="450"/>
     </row>
     <row r="91">
-      <c r="A91" t="s">
-        <v>183</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" t="s" s="451">
         <v>184</v>
       </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91">
+      <c r="B91" t="s" s="452">
+        <v>185</v>
+      </c>
+      <c r="C91" t="s" s="453">
+        <v>7</v>
+      </c>
+      <c r="D91" s="454">
         <v>135.4</v>
       </c>
+      <c r="E91" s="455"/>
     </row>
     <row r="92">
-      <c r="A92" t="s">
-        <v>185</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" t="s" s="456">
         <v>186</v>
       </c>
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92">
+      <c r="B92" t="s" s="457">
+        <v>187</v>
+      </c>
+      <c r="C92" t="s" s="458">
+        <v>7</v>
+      </c>
+      <c r="D92" s="459">
         <v>331.37</v>
       </c>
+      <c r="E92" s="460"/>
     </row>
     <row r="93">
-      <c r="A93" t="s">
-        <v>187</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="A93" t="s" s="461">
         <v>188</v>
       </c>
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93">
+      <c r="B93" t="s" s="462">
+        <v>189</v>
+      </c>
+      <c r="C93" t="s" s="463">
+        <v>7</v>
+      </c>
+      <c r="D93" s="464">
         <v>331.37</v>
       </c>
+      <c r="E93" s="465"/>
     </row>
     <row r="94">
-      <c r="A94" t="s">
-        <v>189</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" t="s" s="466">
         <v>190</v>
       </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94">
+      <c r="B94" t="s" s="467">
+        <v>191</v>
+      </c>
+      <c r="C94" t="s" s="468">
+        <v>7</v>
+      </c>
+      <c r="D94" s="469">
         <v>331.37</v>
       </c>
+      <c r="E94" s="470"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D95">
         <v>331.37</v>
       </c>
+      <c r="E95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/ت.قتالى+م.م.xlsx
+++ b/ت.قتالى+م.م.xlsx
@@ -50,6 +50,12 @@
     <t xml:space="preserve">ت.قتالى+م.م</t>
   </si>
   <si>
+    <t xml:space="preserve">٣٣١٫٣٧</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">ابراهيم سلامه سالم عيد</t>
   </si>
   <si>
@@ -236,6 +242,9 @@
     <t xml:space="preserve">29703028800517</t>
   </si>
   <si>
+    <t xml:space="preserve">٦٦٧٫٥٩</t>
+  </si>
+  <si>
     <t xml:space="preserve">سليم احمد ابو الحمد سليم</t>
   </si>
   <si>
@@ -584,6 +593,9 @@
     <t xml:space="preserve">30101142701052</t>
   </si>
   <si>
+    <t xml:space="preserve">١٣٥٫٤</t>
+  </si>
+  <si>
     <t xml:space="preserve">هانى نصحى رمزى فهمى</t>
   </si>
   <si>
@@ -611,7 +623,7 @@
     <t xml:space="preserve">الاجمالى</t>
   </si>
   <si>
-    <t xml:space="preserve">31289.03</t>
+    <t xml:space="preserve">٣١٬٢٨٩٫٠٣</t>
   </si>
 </sst>
 </file>
@@ -628,1883 +640,1923 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
       <b/>
     </font>
   </fonts>
@@ -2515,476 +2567,526 @@
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders>
     <border>
@@ -2992,6 +3094,76 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -6305,1399 +6477,1429 @@
     <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="14" fillId="15" borderId="14" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="15" fillId="16" borderId="15" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="20" fillId="21" borderId="20" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="21" fillId="22" borderId="21" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="22" fillId="23" borderId="22" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="27" fillId="28" borderId="27" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="28" fillId="29" borderId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="32" fillId="33" borderId="32" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="33" fillId="34" borderId="33" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="34" fillId="35" borderId="34" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="38" fillId="39" borderId="38" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="39" fillId="40" borderId="39" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="40" fillId="41" borderId="40" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="44" fillId="45" borderId="44" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="45" fillId="46" borderId="45" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="46" fillId="47" borderId="46" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="50" fillId="51" borderId="50" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="51" fillId="52" borderId="51" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="52" fillId="53" borderId="52" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="56" fillId="57" borderId="56" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="57" fillId="58" borderId="57" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="58" fillId="59" borderId="58" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="62" fillId="63" borderId="62" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="63" fillId="64" borderId="63" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="64" fillId="65" borderId="64" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="68" fillId="69" borderId="68" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="69" fillId="70" borderId="69" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="70" fillId="71" borderId="70" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="74" fillId="75" borderId="74" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="75" fillId="76" borderId="75" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="76" fillId="77" borderId="76" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="80" fillId="81" borderId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="81" fillId="82" borderId="81" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="82" fillId="83" borderId="82" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="86" fillId="87" borderId="86" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="87" fillId="88" borderId="87" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="88" fillId="89" borderId="88" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="92" fillId="93" borderId="92" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="93" fillId="94" borderId="93" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="94" fillId="95" borderId="94" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="98" fillId="99" borderId="98" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="99" fillId="100" borderId="99" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="100" fillId="101" borderId="100" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="104" fillId="105" borderId="104" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="105" fillId="106" borderId="105" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="106" fillId="107" borderId="106" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="110" fillId="111" borderId="110" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="111" fillId="112" borderId="111" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="112" fillId="113" borderId="112" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="116" fillId="117" borderId="116" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="117" fillId="118" borderId="117" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="118" fillId="119" borderId="118" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="122" fillId="123" borderId="122" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="123" fillId="124" borderId="123" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="124" fillId="125" borderId="124" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="128" fillId="129" borderId="128" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="129" fillId="130" borderId="129" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="130" fillId="131" borderId="130" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="134" fillId="135" borderId="134" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="135" fillId="136" borderId="135" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="136" fillId="137" borderId="136" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="140" fillId="141" borderId="140" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="141" fillId="142" borderId="141" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="142" fillId="143" borderId="142" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="146" fillId="147" borderId="146" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="147" fillId="148" borderId="147" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="148" fillId="149" borderId="148" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="151" fillId="152" borderId="151" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="152" fillId="153" borderId="152" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="153" fillId="154" borderId="153" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="154" fillId="155" borderId="154" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="155" fillId="156" borderId="155" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="157" fillId="158" borderId="157" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="158" fillId="159" borderId="158" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="159" fillId="160" borderId="159" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="160" fillId="161" borderId="160" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="161" fillId="162" borderId="161" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="163" fillId="164" borderId="163" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="164" fillId="165" borderId="164" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="165" fillId="166" borderId="165" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="166" fillId="167" borderId="166" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="167" fillId="168" borderId="167" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="169" fillId="170" borderId="169" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="170" fillId="171" borderId="170" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="171" fillId="172" borderId="171" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="172" fillId="173" borderId="172" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="173" fillId="174" borderId="173" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="175" fillId="176" borderId="175" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="176" fillId="177" borderId="176" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="177" fillId="178" borderId="177" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="178" fillId="179" borderId="178" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="179" fillId="180" borderId="179" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="181" fillId="182" borderId="181" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="182" fillId="183" borderId="182" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="183" fillId="184" borderId="183" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="184" fillId="185" borderId="184" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="185" fillId="186" borderId="185" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="187" fillId="188" borderId="187" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="188" fillId="189" borderId="188" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="189" fillId="190" borderId="189" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="190" fillId="191" borderId="190" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="191" fillId="192" borderId="191" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="193" fillId="194" borderId="193" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="194" fillId="195" borderId="194" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="195" fillId="196" borderId="195" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="196" fillId="197" borderId="196" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="197" fillId="198" borderId="197" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="199" fillId="200" borderId="199" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="200" fillId="201" borderId="200" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="201" fillId="202" borderId="201" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="202" fillId="203" borderId="202" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="203" fillId="204" borderId="203" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="205" fillId="206" borderId="205" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="206" fillId="207" borderId="206" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="207" fillId="208" borderId="207" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="208" fillId="209" borderId="208" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="209" fillId="210" borderId="209" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="211" fillId="212" borderId="211" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="212" fillId="213" borderId="212" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="213" fillId="214" borderId="213" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="214" fillId="215" borderId="214" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="215" fillId="216" borderId="215" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="217" fillId="218" borderId="217" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="218" fillId="219" borderId="218" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="219" fillId="220" borderId="219" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="220" fillId="221" borderId="220" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="221" fillId="222" borderId="221" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="223" fillId="224" borderId="223" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="224" fillId="225" borderId="224" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="225" fillId="226" borderId="225" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="226" fillId="227" borderId="226" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="227" fillId="228" borderId="227" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="229" fillId="230" borderId="229" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="230" fillId="231" borderId="230" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="231" fillId="232" borderId="231" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="232" fillId="233" borderId="232" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="233" fillId="234" borderId="233" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="235" fillId="236" borderId="235" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="236" fillId="237" borderId="236" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="237" fillId="238" borderId="237" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="238" fillId="239" borderId="238" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="239" fillId="240" borderId="239" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="241" fillId="242" borderId="241" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="242" fillId="243" borderId="242" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="243" fillId="244" borderId="243" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="244" fillId="245" borderId="244" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="245" fillId="246" borderId="245" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="247" fillId="248" borderId="247" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="248" fillId="249" borderId="248" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="249" fillId="250" borderId="249" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="250" fillId="251" borderId="250" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="251" fillId="252" borderId="251" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="252" fillId="253" borderId="252" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="253" fillId="254" borderId="253" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="254" fillId="255" borderId="254" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="255" fillId="256" borderId="255" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="256" fillId="257" borderId="256" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="257" fillId="258" borderId="257" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="258" fillId="259" borderId="258" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="259" fillId="260" borderId="259" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="260" fillId="261" borderId="260" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="261" fillId="262" borderId="261" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="262" fillId="263" borderId="262" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="263" fillId="264" borderId="263" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="264" fillId="265" borderId="264" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="265" fillId="266" borderId="265" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="266" fillId="267" borderId="266" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="267" fillId="268" borderId="267" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="268" fillId="269" borderId="268" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="269" fillId="270" borderId="269" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="270" fillId="271" borderId="270" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="271" fillId="272" borderId="271" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="272" fillId="273" borderId="272" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="273" fillId="274" borderId="273" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="274" fillId="275" borderId="274" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="275" fillId="276" borderId="275" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="276" fillId="277" borderId="276" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="277" fillId="278" borderId="277" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="278" fillId="279" borderId="278" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="279" fillId="280" borderId="279" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="280" fillId="281" borderId="280" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="281" fillId="282" borderId="281" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="282" fillId="283" borderId="282" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="283" fillId="284" borderId="283" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="284" fillId="285" borderId="284" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="285" fillId="286" borderId="285" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="286" fillId="287" borderId="286" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="287" fillId="288" borderId="287" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="288" fillId="289" borderId="288" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="289" fillId="290" borderId="289" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="290" fillId="291" borderId="290" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="291" fillId="292" borderId="291" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="292" fillId="293" borderId="292" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="293" fillId="294" borderId="293" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="294" fillId="295" borderId="294" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="295" fillId="296" borderId="295" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="296" fillId="297" borderId="296" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="297" fillId="298" borderId="297" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="298" fillId="299" borderId="298" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="299" fillId="300" borderId="299" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="300" fillId="301" borderId="300" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="301" fillId="302" borderId="301" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="302" fillId="303" borderId="302" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="303" fillId="304" borderId="303" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="304" fillId="305" borderId="304" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="305" fillId="306" borderId="305" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="306" fillId="307" borderId="306" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="307" fillId="308" borderId="307" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="308" fillId="309" borderId="308" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="309" fillId="310" borderId="309" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="310" fillId="311" borderId="310" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="311" fillId="312" borderId="311" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="312" fillId="313" borderId="312" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="313" fillId="314" borderId="313" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="314" fillId="315" borderId="314" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="315" fillId="316" borderId="315" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="316" fillId="317" borderId="316" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="317" fillId="318" borderId="317" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="318" fillId="319" borderId="318" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="319" fillId="320" borderId="319" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="320" fillId="321" borderId="320" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="321" fillId="322" borderId="321" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="322" fillId="323" borderId="322" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="323" fillId="324" borderId="323" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="324" fillId="325" borderId="324" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="325" fillId="326" borderId="325" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="326" fillId="327" borderId="326" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="327" fillId="328" borderId="327" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="328" fillId="329" borderId="328" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="329" fillId="330" borderId="329" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="330" fillId="331" borderId="330" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="331" fillId="332" borderId="331" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="332" fillId="333" borderId="332" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="333" fillId="334" borderId="333" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="334" fillId="335" borderId="334" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="335" fillId="336" borderId="335" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="336" fillId="337" borderId="336" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="337" fillId="338" borderId="337" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="338" fillId="339" borderId="338" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="339" fillId="340" borderId="339" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="340" fillId="341" borderId="340" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="341" fillId="342" borderId="341" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="342" fillId="343" borderId="342" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="343" fillId="344" borderId="343" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="344" fillId="345" borderId="344" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="345" fillId="346" borderId="345" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="346" fillId="347" borderId="346" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="347" fillId="348" borderId="347" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="348" fillId="349" borderId="348" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="349" fillId="350" borderId="349" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="350" fillId="351" borderId="350" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="351" fillId="352" borderId="351" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="352" fillId="353" borderId="352" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="353" fillId="354" borderId="353" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="354" fillId="355" borderId="354" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="355" fillId="356" borderId="355" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="356" fillId="357" borderId="356" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="357" fillId="358" borderId="357" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="358" fillId="359" borderId="358" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="359" fillId="360" borderId="359" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="360" fillId="361" borderId="360" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="361" fillId="362" borderId="361" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="362" fillId="363" borderId="362" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="363" fillId="364" borderId="363" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="364" fillId="365" borderId="364" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="365" fillId="366" borderId="365" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="366" fillId="367" borderId="366" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="367" fillId="368" borderId="367" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="368" fillId="369" borderId="368" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="369" fillId="370" borderId="369" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="370" fillId="371" borderId="370" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="371" fillId="372" borderId="371" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="372" fillId="373" borderId="372" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="373" fillId="374" borderId="373" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="374" fillId="375" borderId="374" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="375" fillId="376" borderId="375" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="376" fillId="377" borderId="376" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="377" fillId="378" borderId="377" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="378" fillId="379" borderId="378" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="379" fillId="380" borderId="379" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="380" fillId="381" borderId="380" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="381" fillId="382" borderId="381" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="382" fillId="383" borderId="382" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="383" fillId="384" borderId="383" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="384" fillId="385" borderId="384" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="385" fillId="386" borderId="385" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="386" fillId="387" borderId="386" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="387" fillId="388" borderId="387" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="388" fillId="389" borderId="388" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="389" fillId="390" borderId="389" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="390" fillId="391" borderId="390" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="391" fillId="392" borderId="391" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="392" fillId="393" borderId="392" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="393" fillId="394" borderId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="394" fillId="395" borderId="394" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="395" fillId="396" borderId="395" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="396" fillId="397" borderId="396" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="397" fillId="398" borderId="397" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="398" fillId="399" borderId="398" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="399" fillId="400" borderId="399" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="400" fillId="401" borderId="400" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="401" fillId="402" borderId="401" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="402" fillId="403" borderId="402" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="403" fillId="404" borderId="403" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="404" fillId="405" borderId="404" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="405" fillId="406" borderId="405" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="406" fillId="407" borderId="406" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="407" fillId="408" borderId="407" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="408" fillId="409" borderId="408" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="409" fillId="410" borderId="409" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="410" fillId="411" borderId="410" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="411" fillId="412" borderId="411" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="412" fillId="413" borderId="412" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="413" fillId="414" borderId="413" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="414" fillId="415" borderId="414" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="415" fillId="416" borderId="415" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="416" fillId="417" borderId="416" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="417" fillId="418" borderId="417" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="418" fillId="419" borderId="418" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="419" fillId="420" borderId="419" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="420" fillId="421" borderId="420" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="421" fillId="422" borderId="421" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="422" fillId="423" borderId="422" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="423" fillId="424" borderId="423" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="424" fillId="425" borderId="424" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="425" fillId="426" borderId="425" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="426" fillId="427" borderId="426" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="427" fillId="428" borderId="427" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="428" fillId="429" borderId="428" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="429" fillId="430" borderId="429" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="430" fillId="431" borderId="430" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="431" fillId="432" borderId="431" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="432" fillId="433" borderId="432" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="433" fillId="434" borderId="433" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="434" fillId="435" borderId="434" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="435" fillId="436" borderId="435" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="436" fillId="437" borderId="436" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="437" fillId="438" borderId="437" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="438" fillId="439" borderId="438" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="439" fillId="440" borderId="439" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="440" fillId="441" borderId="440" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="441" fillId="442" borderId="441" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="442" fillId="443" borderId="442" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="443" fillId="444" borderId="443" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="444" fillId="445" borderId="444" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="445" fillId="446" borderId="445" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="446" fillId="447" borderId="446" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="447" fillId="448" borderId="447" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="448" fillId="449" borderId="448" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="449" fillId="450" borderId="449" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="450" fillId="451" borderId="450" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="451" fillId="452" borderId="451" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="452" fillId="453" borderId="452" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="453" fillId="454" borderId="453" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="454" fillId="455" borderId="454" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="455" fillId="456" borderId="455" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="456" fillId="457" borderId="456" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="457" fillId="458" borderId="457" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="458" fillId="459" borderId="458" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="459" fillId="460" borderId="459" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="460" fillId="461" borderId="460" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="461" fillId="462" borderId="461" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="462" fillId="463" borderId="462" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="463" fillId="464" borderId="463" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="464" fillId="465" borderId="464" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="465" fillId="466" borderId="465" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="466" fillId="467" borderId="466" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="467" fillId="468" borderId="467" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="468" fillId="469" borderId="468" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="469" fillId="470" borderId="469" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="470" fillId="471" borderId="470" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="14" fillId="15" borderId="14" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="15" fillId="16" borderId="15" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="20" fillId="21" borderId="20" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="21" fillId="22" borderId="21" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="22" fillId="23" borderId="22" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="27" fillId="28" borderId="27" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="28" fillId="29" borderId="28" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="32" fillId="33" borderId="32" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="33" fillId="34" borderId="33" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="34" fillId="35" borderId="34" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="38" fillId="39" borderId="38" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="39" fillId="40" borderId="39" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="40" fillId="41" borderId="40" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="44" fillId="45" borderId="44" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="45" fillId="46" borderId="45" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="46" fillId="47" borderId="46" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="50" fillId="51" borderId="50" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="51" fillId="52" borderId="51" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="52" fillId="53" borderId="52" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="56" fillId="57" borderId="56" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="57" fillId="58" borderId="57" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="58" fillId="59" borderId="58" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="62" fillId="63" borderId="62" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="63" fillId="64" borderId="63" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="64" fillId="65" borderId="64" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="68" fillId="69" borderId="68" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="69" fillId="70" borderId="69" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="70" fillId="71" borderId="70" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="74" fillId="75" borderId="74" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="75" fillId="76" borderId="75" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="76" fillId="77" borderId="76" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="80" fillId="81" borderId="80" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="81" fillId="82" borderId="81" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="82" fillId="83" borderId="82" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="86" fillId="87" borderId="86" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="87" fillId="88" borderId="87" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="88" fillId="89" borderId="88" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="92" fillId="93" borderId="92" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="93" fillId="94" borderId="93" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="94" fillId="95" borderId="94" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="98" fillId="99" borderId="98" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="99" fillId="100" borderId="99" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="100" fillId="101" borderId="100" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="104" fillId="105" borderId="104" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="105" fillId="106" borderId="105" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="106" fillId="107" borderId="106" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="110" fillId="111" borderId="110" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="111" fillId="112" borderId="111" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="112" fillId="113" borderId="112" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="116" fillId="117" borderId="116" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="117" fillId="118" borderId="117" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="118" fillId="119" borderId="118" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="122" fillId="123" borderId="122" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="123" fillId="124" borderId="123" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="124" fillId="125" borderId="124" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="128" fillId="129" borderId="128" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="129" fillId="130" borderId="129" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="130" fillId="131" borderId="130" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="134" fillId="135" borderId="134" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="135" fillId="136" borderId="135" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="136" fillId="137" borderId="136" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="140" fillId="141" borderId="140" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="141" fillId="142" borderId="141" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="142" fillId="143" borderId="142" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="146" fillId="147" borderId="146" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="147" fillId="148" borderId="147" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="148" fillId="149" borderId="148" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="151" fillId="152" borderId="151" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="152" fillId="153" borderId="152" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="153" fillId="154" borderId="153" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="154" fillId="155" borderId="154" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="155" fillId="156" borderId="155" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="157" fillId="158" borderId="157" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="158" fillId="159" borderId="158" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="159" fillId="160" borderId="159" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="160" fillId="161" borderId="160" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="161" fillId="162" borderId="161" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="163" fillId="164" borderId="163" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="164" fillId="165" borderId="164" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="165" fillId="166" borderId="165" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="166" fillId="167" borderId="166" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="167" fillId="168" borderId="167" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="169" fillId="170" borderId="169" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="170" fillId="171" borderId="170" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="171" fillId="172" borderId="171" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="172" fillId="173" borderId="172" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="173" fillId="174" borderId="173" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="175" fillId="176" borderId="175" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="176" fillId="177" borderId="176" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="177" fillId="178" borderId="177" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="178" fillId="179" borderId="178" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="179" fillId="180" borderId="179" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="181" fillId="182" borderId="181" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="182" fillId="183" borderId="182" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="183" fillId="184" borderId="183" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="184" fillId="185" borderId="184" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="185" fillId="186" borderId="185" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="187" fillId="188" borderId="187" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="188" fillId="189" borderId="188" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="189" fillId="190" borderId="189" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="190" fillId="191" borderId="190" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="191" fillId="192" borderId="191" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="193" fillId="194" borderId="193" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="194" fillId="195" borderId="194" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="195" fillId="196" borderId="195" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="196" fillId="197" borderId="196" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="197" fillId="198" borderId="197" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="199" fillId="200" borderId="199" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="200" fillId="201" borderId="200" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="201" fillId="202" borderId="201" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="202" fillId="203" borderId="202" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="203" fillId="204" borderId="203" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="205" fillId="206" borderId="205" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="206" fillId="207" borderId="206" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="207" fillId="208" borderId="207" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="208" fillId="209" borderId="208" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="209" fillId="210" borderId="209" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="211" fillId="212" borderId="211" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="212" fillId="213" borderId="212" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="213" fillId="214" borderId="213" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="214" fillId="215" borderId="214" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="215" fillId="216" borderId="215" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="217" fillId="218" borderId="217" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="218" fillId="219" borderId="218" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="219" fillId="220" borderId="219" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="220" fillId="221" borderId="220" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="221" fillId="222" borderId="221" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="223" fillId="224" borderId="223" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="224" fillId="225" borderId="224" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="225" fillId="226" borderId="225" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="226" fillId="227" borderId="226" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="227" fillId="228" borderId="227" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="229" fillId="230" borderId="229" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="230" fillId="231" borderId="230" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="231" fillId="232" borderId="231" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="232" fillId="233" borderId="232" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="233" fillId="234" borderId="233" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="235" fillId="236" borderId="235" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="236" fillId="237" borderId="236" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="237" fillId="238" borderId="237" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="238" fillId="239" borderId="238" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="239" fillId="240" borderId="239" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="241" fillId="242" borderId="241" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="242" fillId="243" borderId="242" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="243" fillId="244" borderId="243" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="244" fillId="245" borderId="244" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="245" fillId="246" borderId="245" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="247" fillId="248" borderId="247" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="248" fillId="249" borderId="248" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="249" fillId="250" borderId="249" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="250" fillId="251" borderId="250" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="251" fillId="252" borderId="251" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="252" fillId="253" borderId="252" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="253" fillId="254" borderId="253" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="254" fillId="255" borderId="254" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="255" fillId="256" borderId="255" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="256" fillId="257" borderId="256" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="257" fillId="258" borderId="257" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="258" fillId="259" borderId="258" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="259" fillId="260" borderId="259" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="260" fillId="261" borderId="260" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="261" fillId="262" borderId="261" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="262" fillId="263" borderId="262" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="263" fillId="264" borderId="263" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="264" fillId="265" borderId="264" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="265" fillId="266" borderId="265" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="266" fillId="267" borderId="266" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="267" fillId="268" borderId="267" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="268" fillId="269" borderId="268" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="269" fillId="270" borderId="269" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="270" fillId="271" borderId="270" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="271" fillId="272" borderId="271" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="272" fillId="273" borderId="272" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="273" fillId="274" borderId="273" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="274" fillId="275" borderId="274" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="275" fillId="276" borderId="275" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="276" fillId="277" borderId="276" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="277" fillId="278" borderId="277" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="278" fillId="279" borderId="278" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="279" fillId="280" borderId="279" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="280" fillId="281" borderId="280" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="281" fillId="282" borderId="281" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="282" fillId="283" borderId="282" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="283" fillId="284" borderId="283" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="284" fillId="285" borderId="284" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="285" fillId="286" borderId="285" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="286" fillId="287" borderId="286" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="287" fillId="288" borderId="287" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="288" fillId="289" borderId="288" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="289" fillId="290" borderId="289" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="290" fillId="291" borderId="290" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="291" fillId="292" borderId="291" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="292" fillId="293" borderId="292" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="293" fillId="294" borderId="293" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="294" fillId="295" borderId="294" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="295" fillId="296" borderId="295" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="296" fillId="297" borderId="296" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="297" fillId="298" borderId="297" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="298" fillId="299" borderId="298" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="299" fillId="300" borderId="299" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="300" fillId="301" borderId="300" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="301" fillId="302" borderId="301" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="302" fillId="303" borderId="302" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="303" fillId="304" borderId="303" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="304" fillId="305" borderId="304" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="305" fillId="306" borderId="305" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="306" fillId="307" borderId="306" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="307" fillId="308" borderId="307" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="308" fillId="309" borderId="308" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="309" fillId="310" borderId="309" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="310" fillId="311" borderId="310" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="311" fillId="312" borderId="311" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="312" fillId="313" borderId="312" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="313" fillId="314" borderId="313" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="314" fillId="315" borderId="314" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="315" fillId="316" borderId="315" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="316" fillId="317" borderId="316" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="317" fillId="318" borderId="317" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="318" fillId="319" borderId="318" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="319" fillId="320" borderId="319" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="320" fillId="321" borderId="320" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="321" fillId="322" borderId="321" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="322" fillId="323" borderId="322" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="323" fillId="324" borderId="323" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="324" fillId="325" borderId="324" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="325" fillId="326" borderId="325" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="326" fillId="327" borderId="326" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="327" fillId="328" borderId="327" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="328" fillId="329" borderId="328" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="329" fillId="330" borderId="329" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="330" fillId="331" borderId="330" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="331" fillId="332" borderId="331" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="332" fillId="333" borderId="332" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="333" fillId="334" borderId="333" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="334" fillId="335" borderId="334" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="335" fillId="336" borderId="335" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="336" fillId="337" borderId="336" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="337" fillId="338" borderId="337" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="338" fillId="339" borderId="338" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="339" fillId="340" borderId="339" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="340" fillId="341" borderId="340" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="341" fillId="342" borderId="341" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="342" fillId="343" borderId="342" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="343" fillId="344" borderId="343" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="344" fillId="345" borderId="344" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="345" fillId="346" borderId="345" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="346" fillId="347" borderId="346" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="347" fillId="348" borderId="347" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="348" fillId="349" borderId="348" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="349" fillId="350" borderId="349" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="350" fillId="351" borderId="350" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="351" fillId="352" borderId="351" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="352" fillId="353" borderId="352" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="353" fillId="354" borderId="353" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="354" fillId="355" borderId="354" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="355" fillId="356" borderId="355" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="356" fillId="357" borderId="356" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="357" fillId="358" borderId="357" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="358" fillId="359" borderId="358" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="359" fillId="360" borderId="359" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="360" fillId="361" borderId="360" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="361" fillId="362" borderId="361" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="362" fillId="363" borderId="362" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="363" fillId="364" borderId="363" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="364" fillId="365" borderId="364" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="365" fillId="366" borderId="365" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="366" fillId="367" borderId="366" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="367" fillId="368" borderId="367" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="368" fillId="369" borderId="368" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="369" fillId="370" borderId="369" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="370" fillId="371" borderId="370" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="371" fillId="372" borderId="371" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="372" fillId="373" borderId="372" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="373" fillId="374" borderId="373" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="374" fillId="375" borderId="374" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="375" fillId="376" borderId="375" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="376" fillId="377" borderId="376" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="377" fillId="378" borderId="377" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="378" fillId="379" borderId="378" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="379" fillId="380" borderId="379" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="380" fillId="381" borderId="380" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="381" fillId="382" borderId="381" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="382" fillId="383" borderId="382" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="383" fillId="384" borderId="383" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="384" fillId="385" borderId="384" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="385" fillId="386" borderId="385" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="386" fillId="387" borderId="386" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="387" fillId="388" borderId="387" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="388" fillId="389" borderId="388" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="389" fillId="390" borderId="389" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="390" fillId="391" borderId="390" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="391" fillId="392" borderId="391" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="392" fillId="393" borderId="392" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="393" fillId="394" borderId="393" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="394" fillId="395" borderId="394" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="395" fillId="396" borderId="395" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="396" fillId="397" borderId="396" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="397" fillId="398" borderId="397" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="398" fillId="399" borderId="398" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="399" fillId="400" borderId="399" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="400" fillId="401" borderId="400" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="401" fillId="402" borderId="401" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="402" fillId="403" borderId="402" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="403" fillId="404" borderId="403" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="404" fillId="405" borderId="404" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="405" fillId="406" borderId="405" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="406" fillId="407" borderId="406" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="407" fillId="408" borderId="407" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="408" fillId="409" borderId="408" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="409" fillId="410" borderId="409" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="410" fillId="411" borderId="410" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="411" fillId="412" borderId="411" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="412" fillId="413" borderId="412" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="413" fillId="414" borderId="413" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="414" fillId="415" borderId="414" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="415" fillId="416" borderId="415" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="416" fillId="417" borderId="416" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="417" fillId="418" borderId="417" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="418" fillId="419" borderId="418" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="419" fillId="420" borderId="419" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="420" fillId="421" borderId="420" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="421" fillId="422" borderId="421" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="422" fillId="423" borderId="422" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="423" fillId="424" borderId="423" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="424" fillId="425" borderId="424" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="425" fillId="426" borderId="425" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="426" fillId="427" borderId="426" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="427" fillId="428" borderId="427" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="428" fillId="429" borderId="428" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="429" fillId="430" borderId="429" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="430" fillId="431" borderId="430" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="431" fillId="432" borderId="431" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="432" fillId="433" borderId="432" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="433" fillId="434" borderId="433" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="434" fillId="435" borderId="434" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="435" fillId="436" borderId="435" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="436" fillId="437" borderId="436" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="437" fillId="438" borderId="437" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="438" fillId="439" borderId="438" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="439" fillId="440" borderId="439" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="440" fillId="441" borderId="440" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="441" fillId="442" borderId="441" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="442" fillId="443" borderId="442" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="443" fillId="444" borderId="443" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="444" fillId="445" borderId="444" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="445" fillId="446" borderId="445" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="446" fillId="447" borderId="446" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="447" fillId="448" borderId="447" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="448" fillId="449" borderId="448" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="449" fillId="450" borderId="449" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="450" fillId="451" borderId="450" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="451" fillId="452" borderId="451" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="452" fillId="453" borderId="452" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="453" fillId="454" borderId="453" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="454" fillId="455" borderId="454" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="455" fillId="456" borderId="455" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="456" fillId="457" borderId="456" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="457" fillId="458" borderId="457" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="458" fillId="459" borderId="458" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="459" fillId="460" borderId="459" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="460" fillId="461" borderId="460" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="461" fillId="462" borderId="461" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="462" fillId="463" borderId="462" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="463" fillId="464" borderId="463" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="464" fillId="465" borderId="464" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="465" fillId="466" borderId="465" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="466" fillId="467" borderId="466" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="467" fillId="468" borderId="467" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="468" fillId="469" borderId="468" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="469" fillId="470" borderId="469" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="470" fillId="471" borderId="470" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="471" fillId="472" borderId="471" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="472" fillId="473" borderId="472" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="473" fillId="474" borderId="473" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="474" fillId="475" borderId="474" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="475" fillId="476" borderId="475" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="476" fillId="477" borderId="476" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="477" fillId="478" borderId="477" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="478" fillId="479" borderId="478" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="479" fillId="480" borderId="479" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="480" fillId="481" borderId="480" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -7982,7 +8184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7990,7 +8192,7 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8020,1412 +8222,1609 @@
       <c r="C2" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="D2" s="9">
-        <v>331.37</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="D2" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="D3" s="14">
-        <v>331.37</v>
-      </c>
-      <c r="E3" s="15"/>
+      <c r="D3" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="15">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="D4" s="19">
-        <v>331.37</v>
-      </c>
-      <c r="E4" s="20"/>
+      <c r="D4" t="s" s="19">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="23">
         <v>7</v>
       </c>
-      <c r="D5" s="24">
-        <v>331.37</v>
-      </c>
-      <c r="E5" s="25"/>
+      <c r="D5" t="s" s="24">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="25">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="28">
         <v>7</v>
       </c>
-      <c r="D6" s="29">
-        <v>331.37</v>
-      </c>
-      <c r="E6" s="30"/>
+      <c r="D6" t="s" s="29">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="30">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="32">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="33">
         <v>7</v>
       </c>
-      <c r="D7" s="34">
-        <v>331.37</v>
-      </c>
-      <c r="E7" s="35"/>
+      <c r="D7" t="s" s="34">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="35">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s" s="37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s" s="38">
         <v>7</v>
       </c>
-      <c r="D8" s="39">
-        <v>331.37</v>
-      </c>
-      <c r="E8" s="40"/>
+      <c r="D8" t="s" s="39">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="40">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="41">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s" s="42">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="43">
         <v>7</v>
       </c>
-      <c r="D9" s="44">
-        <v>331.37</v>
-      </c>
-      <c r="E9" s="45"/>
+      <c r="D9" t="s" s="44">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="45">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="46">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s" s="47">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s" s="48">
         <v>7</v>
       </c>
-      <c r="D10" s="49">
-        <v>331.37</v>
-      </c>
-      <c r="E10" s="50"/>
+      <c r="D10" t="s" s="49">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="50">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="51">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s" s="52">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s" s="53">
         <v>7</v>
       </c>
-      <c r="D11" s="54">
-        <v>331.37</v>
-      </c>
-      <c r="E11" s="55"/>
+      <c r="D11" t="s" s="54">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="55">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="56">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s" s="57">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s" s="58">
         <v>7</v>
       </c>
-      <c r="D12" s="59">
-        <v>331.37</v>
-      </c>
-      <c r="E12" s="60"/>
+      <c r="D12" t="s" s="59">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="60">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="61">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s" s="62">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s" s="63">
         <v>7</v>
       </c>
-      <c r="D13" s="64">
-        <v>331.37</v>
-      </c>
-      <c r="E13" s="65"/>
+      <c r="D13" t="s" s="64">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="65">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="66">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s" s="67">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s" s="68">
         <v>7</v>
       </c>
-      <c r="D14" s="69">
-        <v>331.37</v>
-      </c>
-      <c r="E14" s="70"/>
+      <c r="D14" t="s" s="69">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="70">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="71">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s" s="72">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s" s="73">
         <v>7</v>
       </c>
-      <c r="D15" s="74">
-        <v>331.37</v>
-      </c>
-      <c r="E15" s="75"/>
+      <c r="D15" t="s" s="74">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="75">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="76">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s" s="77">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s" s="78">
         <v>7</v>
       </c>
-      <c r="D16" s="79">
-        <v>331.37</v>
-      </c>
-      <c r="E16" s="80"/>
+      <c r="D16" t="s" s="79">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="80">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="81">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s" s="82">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s" s="83">
         <v>7</v>
       </c>
-      <c r="D17" s="84">
-        <v>331.37</v>
-      </c>
-      <c r="E17" s="85"/>
+      <c r="D17" t="s" s="84">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="85">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="86">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s" s="87">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s" s="88">
         <v>7</v>
       </c>
-      <c r="D18" s="89">
-        <v>331.37</v>
-      </c>
-      <c r="E18" s="90"/>
+      <c r="D18" t="s" s="89">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="90">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="91">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="92">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s" s="93">
         <v>7</v>
       </c>
-      <c r="D19" s="94">
-        <v>331.37</v>
-      </c>
-      <c r="E19" s="95"/>
+      <c r="D19" t="s" s="94">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="95">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="96">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="97">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s" s="98">
         <v>7</v>
       </c>
-      <c r="D20" s="99">
-        <v>331.37</v>
-      </c>
-      <c r="E20" s="100"/>
+      <c r="D20" t="s" s="99">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="100">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="101">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s" s="102">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s" s="103">
         <v>7</v>
       </c>
-      <c r="D21" s="104">
-        <v>331.37</v>
-      </c>
-      <c r="E21" s="105"/>
+      <c r="D21" t="s" s="104">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="105">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="106">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="107">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s" s="108">
         <v>7</v>
       </c>
-      <c r="D22" s="109">
-        <v>331.37</v>
-      </c>
-      <c r="E22" s="110"/>
+      <c r="D22" t="s" s="109">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="110">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="111">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s" s="112">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s" s="113">
         <v>7</v>
       </c>
-      <c r="D23" s="114">
-        <v>331.37</v>
-      </c>
-      <c r="E23" s="115"/>
+      <c r="D23" t="s" s="114">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="115">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="116">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s" s="117">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s" s="118">
         <v>7</v>
       </c>
-      <c r="D24" s="119">
-        <v>331.37</v>
-      </c>
-      <c r="E24" s="120"/>
+      <c r="D24" t="s" s="119">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="120">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="121">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s" s="122">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s" s="123">
         <v>7</v>
       </c>
-      <c r="D25" s="124">
-        <v>331.37</v>
-      </c>
-      <c r="E25" s="125"/>
+      <c r="D25" t="s" s="124">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="125">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="126">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s" s="127">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s" s="128">
         <v>7</v>
       </c>
-      <c r="D26" s="129">
-        <v>331.37</v>
-      </c>
-      <c r="E26" s="130"/>
+      <c r="D26" t="s" s="129">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="130">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="131">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s" s="132">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s" s="133">
         <v>7</v>
       </c>
-      <c r="D27" s="134">
-        <v>331.37</v>
-      </c>
-      <c r="E27" s="135"/>
+      <c r="D27" t="s" s="134">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="135">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="136">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s" s="137">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s" s="138">
         <v>7</v>
       </c>
-      <c r="D28" s="139">
-        <v>331.37</v>
-      </c>
-      <c r="E28" s="140"/>
+      <c r="D28" t="s" s="139">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="140">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="141">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s" s="142">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s" s="143">
         <v>7</v>
       </c>
-      <c r="D29" s="144">
-        <v>331.37</v>
-      </c>
-      <c r="E29" s="145"/>
+      <c r="D29" t="s" s="144">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="145">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="146">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s" s="147">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s" s="148">
         <v>7</v>
       </c>
-      <c r="D30" s="149">
-        <v>331.37</v>
-      </c>
-      <c r="E30" s="150"/>
+      <c r="D30" t="s" s="149">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="150">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="151">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s" s="152">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s" s="153">
         <v>7</v>
       </c>
-      <c r="D31" s="154">
-        <v>331.37</v>
-      </c>
-      <c r="E31" s="155"/>
+      <c r="D31" t="s" s="154">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="155">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="156">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s" s="157">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s" s="158">
         <v>7</v>
       </c>
-      <c r="D32" s="159">
-        <v>331.37</v>
-      </c>
-      <c r="E32" s="160"/>
+      <c r="D32" t="s" s="159">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s" s="160">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="161">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s" s="162">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s" s="163">
         <v>7</v>
       </c>
-      <c r="D33" s="164">
-        <v>667.59</v>
-      </c>
-      <c r="E33" s="165"/>
+      <c r="D33" t="s" s="164">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s" s="165">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="166">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s" s="167">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s" s="168">
         <v>7</v>
       </c>
-      <c r="D34" s="169">
-        <v>331.37</v>
-      </c>
-      <c r="E34" s="170"/>
+      <c r="D34" t="s" s="169">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s" s="170">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="171">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s" s="172">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s" s="173">
         <v>7</v>
       </c>
-      <c r="D35" s="174">
-        <v>331.37</v>
-      </c>
-      <c r="E35" s="175"/>
+      <c r="D35" t="s" s="174">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s" s="175">
+        <v>9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="176">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s" s="177">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s" s="178">
         <v>7</v>
       </c>
-      <c r="D36" s="179">
-        <v>331.37</v>
-      </c>
-      <c r="E36" s="180"/>
+      <c r="D36" t="s" s="179">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s" s="180">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="181">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s" s="182">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s" s="183">
         <v>7</v>
       </c>
-      <c r="D37" s="184">
-        <v>331.37</v>
-      </c>
-      <c r="E37" s="185"/>
+      <c r="D37" t="s" s="184">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s" s="185">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="186">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s" s="187">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s" s="188">
         <v>7</v>
       </c>
-      <c r="D38" s="189">
-        <v>331.37</v>
-      </c>
-      <c r="E38" s="190"/>
+      <c r="D38" t="s" s="189">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s" s="190">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="191">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s" s="192">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s" s="193">
         <v>7</v>
       </c>
-      <c r="D39" s="194">
-        <v>331.37</v>
-      </c>
-      <c r="E39" s="195"/>
+      <c r="D39" t="s" s="194">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s" s="195">
+        <v>9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="196">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s" s="197">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s" s="198">
         <v>7</v>
       </c>
-      <c r="D40" s="199">
-        <v>331.37</v>
-      </c>
-      <c r="E40" s="200"/>
+      <c r="D40" t="s" s="199">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s" s="200">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="201">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s" s="202">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s" s="203">
         <v>7</v>
       </c>
-      <c r="D41" s="204">
-        <v>331.37</v>
-      </c>
-      <c r="E41" s="205"/>
+      <c r="D41" t="s" s="204">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s" s="205">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="206">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s" s="207">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s" s="208">
         <v>7</v>
       </c>
-      <c r="D42" s="209">
-        <v>331.37</v>
-      </c>
-      <c r="E42" s="210"/>
+      <c r="D42" t="s" s="209">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s" s="210">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="211">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s" s="212">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s" s="213">
         <v>7</v>
       </c>
-      <c r="D43" s="214">
-        <v>331.37</v>
-      </c>
-      <c r="E43" s="215"/>
+      <c r="D43" t="s" s="214">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s" s="215">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="216">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s" s="217">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s" s="218">
         <v>7</v>
       </c>
-      <c r="D44" s="219">
-        <v>331.37</v>
-      </c>
-      <c r="E44" s="220"/>
+      <c r="D44" t="s" s="219">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s" s="220">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="221">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s" s="222">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s" s="223">
         <v>7</v>
       </c>
-      <c r="D45" s="224">
-        <v>331.37</v>
-      </c>
-      <c r="E45" s="225"/>
+      <c r="D45" t="s" s="224">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s" s="225">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="226">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s" s="227">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s" s="228">
         <v>7</v>
       </c>
-      <c r="D46" s="229">
-        <v>331.37</v>
-      </c>
-      <c r="E46" s="230"/>
+      <c r="D46" t="s" s="229">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s" s="230">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="231">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s" s="232">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s" s="233">
         <v>7</v>
       </c>
-      <c r="D47" s="234">
-        <v>331.37</v>
-      </c>
-      <c r="E47" s="235"/>
+      <c r="D47" t="s" s="234">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s" s="235">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="236">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s" s="237">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s" s="238">
         <v>7</v>
       </c>
-      <c r="D48" s="239">
-        <v>331.37</v>
-      </c>
-      <c r="E48" s="240"/>
+      <c r="D48" t="s" s="239">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s" s="240">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="241">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s" s="242">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s" s="243">
         <v>7</v>
       </c>
-      <c r="D49" s="244">
-        <v>331.37</v>
-      </c>
-      <c r="E49" s="245"/>
+      <c r="D49" t="s" s="244">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s" s="245">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="246">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s" s="247">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s" s="248">
         <v>7</v>
       </c>
-      <c r="D50" s="249">
-        <v>331.37</v>
-      </c>
-      <c r="E50" s="250"/>
+      <c r="D50" t="s" s="249">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s" s="250">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="251">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s" s="252">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s" s="253">
         <v>7</v>
       </c>
-      <c r="D51" s="254">
-        <v>331.37</v>
-      </c>
-      <c r="E51" s="255"/>
+      <c r="D51" t="s" s="254">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s" s="255">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="256">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s" s="257">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s" s="258">
         <v>7</v>
       </c>
-      <c r="D52" s="259">
-        <v>331.37</v>
-      </c>
-      <c r="E52" s="260"/>
+      <c r="D52" t="s" s="259">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s" s="260">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="261">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s" s="262">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s" s="263">
         <v>7</v>
       </c>
-      <c r="D53" s="264">
-        <v>331.37</v>
-      </c>
-      <c r="E53" s="265"/>
+      <c r="D53" t="s" s="264">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s" s="265">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="266">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s" s="267">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s" s="268">
         <v>7</v>
       </c>
-      <c r="D54" s="269">
-        <v>331.37</v>
-      </c>
-      <c r="E54" s="270"/>
+      <c r="D54" t="s" s="269">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s" s="270">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="271">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s" s="272">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s" s="273">
         <v>7</v>
       </c>
-      <c r="D55" s="274">
-        <v>331.37</v>
-      </c>
-      <c r="E55" s="275"/>
+      <c r="D55" t="s" s="274">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s" s="275">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="276">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s" s="277">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s" s="278">
         <v>7</v>
       </c>
-      <c r="D56" s="279">
-        <v>331.37</v>
-      </c>
-      <c r="E56" s="280"/>
+      <c r="D56" t="s" s="279">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s" s="280">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="281">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s" s="282">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s" s="283">
         <v>7</v>
       </c>
-      <c r="D57" s="284">
-        <v>331.37</v>
-      </c>
-      <c r="E57" s="285"/>
+      <c r="D57" t="s" s="284">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s" s="285">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="286">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s" s="287">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s" s="288">
         <v>7</v>
       </c>
-      <c r="D58" s="289">
-        <v>331.37</v>
-      </c>
-      <c r="E58" s="290"/>
+      <c r="D58" t="s" s="289">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s" s="290">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="291">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s" s="292">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s" s="293">
         <v>7</v>
       </c>
-      <c r="D59" s="294">
-        <v>331.37</v>
-      </c>
-      <c r="E59" s="295"/>
+      <c r="D59" t="s" s="294">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s" s="295">
+        <v>9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="296">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s" s="297">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s" s="298">
         <v>7</v>
       </c>
-      <c r="D60" s="299">
-        <v>331.37</v>
-      </c>
-      <c r="E60" s="300"/>
+      <c r="D60" t="s" s="299">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s" s="300">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="301">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s" s="302">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s" s="303">
         <v>7</v>
       </c>
-      <c r="D61" s="304">
-        <v>331.37</v>
-      </c>
-      <c r="E61" s="305"/>
+      <c r="D61" t="s" s="304">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s" s="305">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="306">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s" s="307">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s" s="308">
         <v>7</v>
       </c>
-      <c r="D62" s="309">
-        <v>331.37</v>
-      </c>
-      <c r="E62" s="310"/>
+      <c r="D62" t="s" s="309">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s" s="310">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="311">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s" s="312">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s" s="313">
         <v>7</v>
       </c>
-      <c r="D63" s="314">
-        <v>331.37</v>
-      </c>
-      <c r="E63" s="315"/>
+      <c r="D63" t="s" s="314">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s" s="315">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="316">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s" s="317">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s" s="318">
         <v>7</v>
       </c>
-      <c r="D64" s="319">
-        <v>331.37</v>
-      </c>
-      <c r="E64" s="320"/>
+      <c r="D64" t="s" s="319">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s" s="320">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="321">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s" s="322">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s" s="323">
         <v>7</v>
       </c>
-      <c r="D65" s="324">
-        <v>331.37</v>
-      </c>
-      <c r="E65" s="325"/>
+      <c r="D65" t="s" s="324">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s" s="325">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="326">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s" s="327">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s" s="328">
         <v>7</v>
       </c>
-      <c r="D66" s="329">
-        <v>331.37</v>
-      </c>
-      <c r="E66" s="330"/>
+      <c r="D66" t="s" s="329">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s" s="330">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="331">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s" s="332">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s" s="333">
         <v>7</v>
       </c>
-      <c r="D67" s="334">
-        <v>331.37</v>
-      </c>
-      <c r="E67" s="335"/>
+      <c r="D67" t="s" s="334">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s" s="335">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="336">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s" s="337">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s" s="338">
         <v>7</v>
       </c>
-      <c r="D68" s="339">
-        <v>331.37</v>
-      </c>
-      <c r="E68" s="340"/>
+      <c r="D68" t="s" s="339">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s" s="340">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="341">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s" s="342">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s" s="343">
         <v>7</v>
       </c>
-      <c r="D69" s="344">
-        <v>331.37</v>
-      </c>
-      <c r="E69" s="345"/>
+      <c r="D69" t="s" s="344">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s" s="345">
+        <v>9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="346">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s" s="347">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s" s="348">
         <v>7</v>
       </c>
-      <c r="D70" s="349">
-        <v>331.37</v>
-      </c>
-      <c r="E70" s="350"/>
+      <c r="D70" t="s" s="349">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s" s="350">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="351">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s" s="352">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s" s="353">
         <v>7</v>
       </c>
-      <c r="D71" s="354">
-        <v>331.37</v>
-      </c>
-      <c r="E71" s="355"/>
+      <c r="D71" t="s" s="354">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s" s="355">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="356">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s" s="357">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s" s="358">
         <v>7</v>
       </c>
-      <c r="D72" s="359">
-        <v>331.37</v>
-      </c>
-      <c r="E72" s="360"/>
+      <c r="D72" t="s" s="359">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s" s="360">
+        <v>9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="361">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s" s="362">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s" s="363">
         <v>7</v>
       </c>
-      <c r="D73" s="364">
-        <v>331.37</v>
-      </c>
-      <c r="E73" s="365"/>
+      <c r="D73" t="s" s="364">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s" s="365">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="366">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s" s="367">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C74" t="s" s="368">
         <v>7</v>
       </c>
-      <c r="D74" s="369">
-        <v>331.37</v>
-      </c>
-      <c r="E74" s="370"/>
+      <c r="D74" t="s" s="369">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s" s="370">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="371">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s" s="372">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s" s="373">
         <v>7</v>
       </c>
-      <c r="D75" s="374">
-        <v>331.37</v>
-      </c>
-      <c r="E75" s="375"/>
+      <c r="D75" t="s" s="374">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s" s="375">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="376">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s" s="377">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s" s="378">
         <v>7</v>
       </c>
-      <c r="D76" s="379">
-        <v>331.37</v>
-      </c>
-      <c r="E76" s="380"/>
+      <c r="D76" t="s" s="379">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s" s="380">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="381">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B77" t="s" s="382">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s" s="383">
         <v>7</v>
       </c>
-      <c r="D77" s="384">
-        <v>331.37</v>
-      </c>
-      <c r="E77" s="385"/>
+      <c r="D77" t="s" s="384">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s" s="385">
+        <v>9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="386">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B78" t="s" s="387">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s" s="388">
         <v>7</v>
       </c>
-      <c r="D78" s="389">
-        <v>331.37</v>
-      </c>
-      <c r="E78" s="390"/>
+      <c r="D78" t="s" s="389">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s" s="390">
+        <v>9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="391">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s" s="392">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s" s="393">
         <v>7</v>
       </c>
-      <c r="D79" s="394">
-        <v>331.37</v>
-      </c>
-      <c r="E79" s="395"/>
+      <c r="D79" t="s" s="394">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s" s="395">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="396">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B80" t="s" s="397">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C80" t="s" s="398">
         <v>7</v>
       </c>
-      <c r="D80" s="399">
-        <v>331.37</v>
-      </c>
-      <c r="E80" s="400"/>
+      <c r="D80" t="s" s="399">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s" s="400">
+        <v>9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="401">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s" s="402">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s" s="403">
         <v>7</v>
       </c>
-      <c r="D81" s="404">
-        <v>331.37</v>
-      </c>
-      <c r="E81" s="405"/>
+      <c r="D81" t="s" s="404">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s" s="405">
+        <v>9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="406">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B82" t="s" s="407">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C82" t="s" s="408">
         <v>7</v>
       </c>
-      <c r="D82" s="409">
-        <v>331.37</v>
-      </c>
-      <c r="E82" s="410"/>
+      <c r="D82" t="s" s="409">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s" s="410">
+        <v>9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="411">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B83" t="s" s="412">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s" s="413">
         <v>7</v>
       </c>
-      <c r="D83" s="414">
-        <v>331.37</v>
-      </c>
-      <c r="E83" s="415"/>
+      <c r="D83" t="s" s="414">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s" s="415">
+        <v>9</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="416">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B84" t="s" s="417">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s" s="418">
         <v>7</v>
       </c>
-      <c r="D84" s="419">
-        <v>331.37</v>
-      </c>
-      <c r="E84" s="420"/>
+      <c r="D84" t="s" s="419">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s" s="420">
+        <v>9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="421">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s" s="422">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s" s="423">
         <v>7</v>
       </c>
-      <c r="D85" s="424">
-        <v>331.37</v>
-      </c>
-      <c r="E85" s="425"/>
+      <c r="D85" t="s" s="424">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s" s="425">
+        <v>9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="426">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B86" t="s" s="427">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s" s="428">
         <v>7</v>
       </c>
-      <c r="D86" s="429">
-        <v>331.37</v>
-      </c>
-      <c r="E86" s="430"/>
+      <c r="D86" t="s" s="429">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s" s="430">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="431">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s" s="432">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s" s="433">
         <v>7</v>
       </c>
-      <c r="D87" s="434">
-        <v>331.37</v>
-      </c>
-      <c r="E87" s="435"/>
+      <c r="D87" t="s" s="434">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s" s="435">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="436">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s" s="437">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C88" t="s" s="438">
         <v>7</v>
       </c>
-      <c r="D88" s="439">
-        <v>331.37</v>
-      </c>
-      <c r="E88" s="440"/>
+      <c r="D88" t="s" s="439">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s" s="440">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="441">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B89" t="s" s="442">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C89" t="s" s="443">
         <v>7</v>
       </c>
-      <c r="D89" s="444">
-        <v>331.37</v>
-      </c>
-      <c r="E89" s="445"/>
+      <c r="D89" t="s" s="444">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s" s="445">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="446">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B90" t="s" s="447">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C90" t="s" s="448">
         <v>7</v>
       </c>
-      <c r="D90" s="449">
-        <v>331.37</v>
-      </c>
-      <c r="E90" s="450"/>
+      <c r="D90" t="s" s="449">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s" s="450">
+        <v>9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="451">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B91" t="s" s="452">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s" s="453">
         <v>7</v>
       </c>
-      <c r="D91" s="454">
-        <v>135.4</v>
-      </c>
-      <c r="E91" s="455"/>
+      <c r="D91" t="s" s="454">
+        <v>189</v>
+      </c>
+      <c r="E91" t="s" s="455">
+        <v>9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="456">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s" s="457">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s" s="458">
         <v>7</v>
       </c>
-      <c r="D92" s="459">
-        <v>331.37</v>
-      </c>
-      <c r="E92" s="460"/>
+      <c r="D92" t="s" s="459">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s" s="460">
+        <v>9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="461">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s" s="462">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s" s="463">
         <v>7</v>
       </c>
-      <c r="D93" s="464">
-        <v>331.37</v>
-      </c>
-      <c r="E93" s="465"/>
+      <c r="D93" t="s" s="464">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s" s="465">
+        <v>9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="466">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s" s="467">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C94" t="s" s="468">
         <v>7</v>
       </c>
-      <c r="D94" s="469">
-        <v>331.37</v>
-      </c>
-      <c r="E94" s="470"/>
+      <c r="D94" t="s" s="469">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s" s="470">
+        <v>9</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="s">
-        <v>192</v>
-      </c>
-      <c r="B95" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="A95" t="s" s="471">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s" s="472">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s" s="473">
         <v>7</v>
       </c>
-      <c r="D95">
-        <v>331.37</v>
-      </c>
-      <c r="E95"/>
+      <c r="D95" t="s" s="474">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s" s="475">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" t="s">
-        <v>195</v>
+      <c r="A96" t="s" s="476">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s" s="477">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s" s="478">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s" s="479">
+        <v>199</v>
+      </c>
+      <c r="E96" t="s" s="480">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ت.قتالى+م.م.xlsx
+++ b/ت.قتالى+م.م.xlsx
@@ -657,6 +657,382 @@
     </font>
     <font>
       <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
       <b/>
     </font>
     <font>
@@ -3062,6 +3438,100 @@
     <fill/>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="D9D9D9"/>
@@ -6456,6 +6926,664 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6477,7 +7605,7 @@
     <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6495,7 +7623,7 @@
     <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6513,7 +7641,7 @@
     <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6531,7 +7659,7 @@
     <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6549,7 +7677,7 @@
     <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6567,7 +7695,7 @@
     <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6585,7 +7713,7 @@
     <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6603,7 +7731,7 @@
     <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6621,7 +7749,7 @@
     <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6639,7 +7767,7 @@
     <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6657,7 +7785,7 @@
     <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6675,7 +7803,7 @@
     <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6693,7 +7821,7 @@
     <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6711,7 +7839,7 @@
     <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6729,7 +7857,7 @@
     <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6747,7 +7875,7 @@
     <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6765,7 +7893,7 @@
     <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6783,7 +7911,7 @@
     <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6801,7 +7929,7 @@
     <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6819,7 +7947,7 @@
     <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6837,7 +7965,7 @@
     <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6855,7 +7983,7 @@
     <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6873,7 +8001,7 @@
     <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6891,7 +8019,7 @@
     <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6909,7 +8037,7 @@
     <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="151" fillId="152" borderId="151" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6927,7 +8055,7 @@
     <xf fontId="155" fillId="156" borderId="155" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="157" fillId="158" borderId="157" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6945,7 +8073,7 @@
     <xf fontId="161" fillId="162" borderId="161" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="163" fillId="164" borderId="163" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6963,7 +8091,7 @@
     <xf fontId="167" fillId="168" borderId="167" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="169" fillId="170" borderId="169" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6981,7 +8109,7 @@
     <xf fontId="173" fillId="174" borderId="173" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="175" fillId="176" borderId="175" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -6999,7 +8127,7 @@
     <xf fontId="179" fillId="180" borderId="179" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="181" fillId="182" borderId="181" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7017,7 +8145,7 @@
     <xf fontId="185" fillId="186" borderId="185" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="187" fillId="188" borderId="187" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7035,7 +8163,7 @@
     <xf fontId="191" fillId="192" borderId="191" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="193" fillId="194" borderId="193" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7053,7 +8181,7 @@
     <xf fontId="197" fillId="198" borderId="197" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="199" fillId="200" borderId="199" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7071,7 +8199,7 @@
     <xf fontId="203" fillId="204" borderId="203" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="205" fillId="206" borderId="205" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7089,7 +8217,7 @@
     <xf fontId="209" fillId="210" borderId="209" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="211" fillId="212" borderId="211" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7107,7 +8235,7 @@
     <xf fontId="215" fillId="216" borderId="215" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="217" fillId="218" borderId="217" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7125,7 +8253,7 @@
     <xf fontId="221" fillId="222" borderId="221" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="223" fillId="224" borderId="223" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7143,7 +8271,7 @@
     <xf fontId="227" fillId="228" borderId="227" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="229" fillId="230" borderId="229" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7161,7 +8289,7 @@
     <xf fontId="233" fillId="234" borderId="233" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="235" fillId="236" borderId="235" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7179,7 +8307,7 @@
     <xf fontId="239" fillId="240" borderId="239" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="241" fillId="242" borderId="241" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7197,7 +8325,7 @@
     <xf fontId="245" fillId="246" borderId="245" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="247" fillId="248" borderId="247" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7215,7 +8343,7 @@
     <xf fontId="251" fillId="252" borderId="251" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="252" fillId="253" borderId="252" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="252" fillId="253" borderId="252" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="253" fillId="254" borderId="253" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7233,7 +8361,7 @@
     <xf fontId="257" fillId="258" borderId="257" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="258" fillId="259" borderId="258" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="258" fillId="259" borderId="258" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="259" fillId="260" borderId="259" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7251,7 +8379,7 @@
     <xf fontId="263" fillId="264" borderId="263" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="264" fillId="265" borderId="264" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="264" fillId="265" borderId="264" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="265" fillId="266" borderId="265" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7269,7 +8397,7 @@
     <xf fontId="269" fillId="270" borderId="269" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="270" fillId="271" borderId="270" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="270" fillId="271" borderId="270" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="271" fillId="272" borderId="271" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7287,7 +8415,7 @@
     <xf fontId="275" fillId="276" borderId="275" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="276" fillId="277" borderId="276" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="276" fillId="277" borderId="276" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="277" fillId="278" borderId="277" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7305,7 +8433,7 @@
     <xf fontId="281" fillId="282" borderId="281" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="282" fillId="283" borderId="282" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="282" fillId="283" borderId="282" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="283" fillId="284" borderId="283" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7323,7 +8451,7 @@
     <xf fontId="287" fillId="288" borderId="287" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="288" fillId="289" borderId="288" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="288" fillId="289" borderId="288" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="289" fillId="290" borderId="289" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7341,7 +8469,7 @@
     <xf fontId="293" fillId="294" borderId="293" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="294" fillId="295" borderId="294" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="294" fillId="295" borderId="294" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="295" fillId="296" borderId="295" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7359,7 +8487,7 @@
     <xf fontId="299" fillId="300" borderId="299" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="300" fillId="301" borderId="300" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="300" fillId="301" borderId="300" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="301" fillId="302" borderId="301" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7377,7 +8505,7 @@
     <xf fontId="305" fillId="306" borderId="305" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="306" fillId="307" borderId="306" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="306" fillId="307" borderId="306" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="307" fillId="308" borderId="307" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7395,7 +8523,7 @@
     <xf fontId="311" fillId="312" borderId="311" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="312" fillId="313" borderId="312" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="312" fillId="313" borderId="312" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="313" fillId="314" borderId="313" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7413,7 +8541,7 @@
     <xf fontId="317" fillId="318" borderId="317" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="318" fillId="319" borderId="318" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="318" fillId="319" borderId="318" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="319" fillId="320" borderId="319" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7431,7 +8559,7 @@
     <xf fontId="323" fillId="324" borderId="323" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="324" fillId="325" borderId="324" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="324" fillId="325" borderId="324" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="325" fillId="326" borderId="325" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7449,7 +8577,7 @@
     <xf fontId="329" fillId="330" borderId="329" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="330" fillId="331" borderId="330" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="330" fillId="331" borderId="330" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="331" fillId="332" borderId="331" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7467,7 +8595,7 @@
     <xf fontId="335" fillId="336" borderId="335" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="336" fillId="337" borderId="336" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="336" fillId="337" borderId="336" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="337" fillId="338" borderId="337" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7485,7 +8613,7 @@
     <xf fontId="341" fillId="342" borderId="341" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="342" fillId="343" borderId="342" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="342" fillId="343" borderId="342" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="343" fillId="344" borderId="343" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7503,7 +8631,7 @@
     <xf fontId="347" fillId="348" borderId="347" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="348" fillId="349" borderId="348" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="348" fillId="349" borderId="348" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="349" fillId="350" borderId="349" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7521,7 +8649,7 @@
     <xf fontId="353" fillId="354" borderId="353" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="354" fillId="355" borderId="354" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="354" fillId="355" borderId="354" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="355" fillId="356" borderId="355" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7539,7 +8667,7 @@
     <xf fontId="359" fillId="360" borderId="359" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="360" fillId="361" borderId="360" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="360" fillId="361" borderId="360" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="361" fillId="362" borderId="361" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7557,7 +8685,7 @@
     <xf fontId="365" fillId="366" borderId="365" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="366" fillId="367" borderId="366" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="366" fillId="367" borderId="366" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="367" fillId="368" borderId="367" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7575,7 +8703,7 @@
     <xf fontId="371" fillId="372" borderId="371" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="372" fillId="373" borderId="372" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="372" fillId="373" borderId="372" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="373" fillId="374" borderId="373" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7593,7 +8721,7 @@
     <xf fontId="377" fillId="378" borderId="377" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="378" fillId="379" borderId="378" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="378" fillId="379" borderId="378" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="379" fillId="380" borderId="379" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7611,7 +8739,7 @@
     <xf fontId="383" fillId="384" borderId="383" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="384" fillId="385" borderId="384" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="384" fillId="385" borderId="384" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="385" fillId="386" borderId="385" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7629,7 +8757,7 @@
     <xf fontId="389" fillId="390" borderId="389" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="390" fillId="391" borderId="390" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="390" fillId="391" borderId="390" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="391" fillId="392" borderId="391" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7647,7 +8775,7 @@
     <xf fontId="395" fillId="396" borderId="395" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="396" fillId="397" borderId="396" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="396" fillId="397" borderId="396" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="397" fillId="398" borderId="397" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7665,7 +8793,7 @@
     <xf fontId="401" fillId="402" borderId="401" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="402" fillId="403" borderId="402" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="402" fillId="403" borderId="402" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="403" fillId="404" borderId="403" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7683,7 +8811,7 @@
     <xf fontId="407" fillId="408" borderId="407" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="408" fillId="409" borderId="408" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="408" fillId="409" borderId="408" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="409" fillId="410" borderId="409" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7701,7 +8829,7 @@
     <xf fontId="413" fillId="414" borderId="413" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="414" fillId="415" borderId="414" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="414" fillId="415" borderId="414" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="415" fillId="416" borderId="415" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7719,7 +8847,7 @@
     <xf fontId="419" fillId="420" borderId="419" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="420" fillId="421" borderId="420" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="420" fillId="421" borderId="420" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="421" fillId="422" borderId="421" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7737,7 +8865,7 @@
     <xf fontId="425" fillId="426" borderId="425" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="426" fillId="427" borderId="426" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="426" fillId="427" borderId="426" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="427" fillId="428" borderId="427" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7755,7 +8883,7 @@
     <xf fontId="431" fillId="432" borderId="431" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="432" fillId="433" borderId="432" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="432" fillId="433" borderId="432" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="433" fillId="434" borderId="433" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7773,7 +8901,7 @@
     <xf fontId="437" fillId="438" borderId="437" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="438" fillId="439" borderId="438" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="438" fillId="439" borderId="438" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="439" fillId="440" borderId="439" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7791,7 +8919,7 @@
     <xf fontId="443" fillId="444" borderId="443" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="444" fillId="445" borderId="444" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="444" fillId="445" borderId="444" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="445" fillId="446" borderId="445" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7809,7 +8937,7 @@
     <xf fontId="449" fillId="450" borderId="449" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="450" fillId="451" borderId="450" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="450" fillId="451" borderId="450" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="451" fillId="452" borderId="451" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7827,7 +8955,7 @@
     <xf fontId="455" fillId="456" borderId="455" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="456" fillId="457" borderId="456" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="456" fillId="457" borderId="456" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="457" fillId="458" borderId="457" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7845,7 +8973,7 @@
     <xf fontId="461" fillId="462" borderId="461" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="462" fillId="463" borderId="462" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="462" fillId="463" borderId="462" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="463" fillId="464" borderId="463" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7863,7 +8991,7 @@
     <xf fontId="467" fillId="468" borderId="467" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="468" fillId="469" borderId="468" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="468" fillId="469" borderId="468" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="469" fillId="470" borderId="469" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7881,25 +9009,307 @@
     <xf fontId="473" fillId="474" borderId="473" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="474" fillId="475" borderId="474" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="474" fillId="475" borderId="474" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="475" fillId="476" borderId="475" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="476" fillId="477" borderId="476" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="477" fillId="478" borderId="477" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="478" fillId="479" borderId="478" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="479" fillId="480" borderId="479" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="476" fillId="477" borderId="476" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="477" fillId="478" borderId="477" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="478" fillId="479" borderId="478" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="479" fillId="480" borderId="479" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="480" fillId="481" borderId="480" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="481" fillId="482" borderId="481" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="482" fillId="483" borderId="482" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="483" fillId="484" borderId="483" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="484" fillId="485" borderId="484" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="485" fillId="486" borderId="485" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="486" fillId="487" borderId="486" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="487" fillId="488" borderId="487" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="488" fillId="489" borderId="488" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="489" fillId="490" borderId="489" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="490" fillId="491" borderId="490" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="491" fillId="492" borderId="491" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="492" fillId="493" borderId="492" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="493" fillId="494" borderId="493" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="494" fillId="495" borderId="494" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="495" fillId="496" borderId="495" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="496" fillId="497" borderId="496" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="497" fillId="498" borderId="497" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="498" fillId="499" borderId="498" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="499" fillId="500" borderId="499" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="500" fillId="501" borderId="500" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="501" fillId="502" borderId="501" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="502" fillId="503" borderId="502" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="503" fillId="504" borderId="503" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="504" fillId="505" borderId="504" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="505" fillId="506" borderId="505" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="506" fillId="507" borderId="506" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="507" fillId="508" borderId="507" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="508" fillId="509" borderId="508" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="509" fillId="510" borderId="509" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="510" fillId="511" borderId="510" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="511" fillId="512" borderId="511" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="512" fillId="513" borderId="512" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="513" fillId="514" borderId="513" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="514" fillId="515" borderId="514" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="515" fillId="516" borderId="515" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="516" fillId="517" borderId="516" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="517" fillId="518" borderId="517" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="518" fillId="519" borderId="518" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="519" fillId="520" borderId="519" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="520" fillId="521" borderId="520" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="521" fillId="522" borderId="521" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="522" fillId="523" borderId="522" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="523" fillId="524" borderId="523" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="524" fillId="525" borderId="524" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="525" fillId="526" borderId="525" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="526" fillId="527" borderId="526" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="527" fillId="528" borderId="527" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="528" fillId="529" borderId="528" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="529" fillId="530" borderId="529" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="530" fillId="531" borderId="530" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="531" fillId="532" borderId="531" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="532" fillId="533" borderId="532" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="533" fillId="534" borderId="533" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="534" fillId="535" borderId="534" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="535" fillId="536" borderId="535" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="536" fillId="537" borderId="536" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="537" fillId="538" borderId="537" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="538" fillId="539" borderId="538" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="539" fillId="540" borderId="539" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="540" fillId="541" borderId="540" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="541" fillId="542" borderId="541" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="542" fillId="543" borderId="542" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="543" fillId="544" borderId="543" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="544" fillId="545" borderId="544" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="545" fillId="546" borderId="545" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="546" fillId="547" borderId="546" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="547" fillId="548" borderId="547" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="548" fillId="549" borderId="548" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="549" fillId="550" borderId="549" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="550" fillId="551" borderId="550" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="551" fillId="552" borderId="551" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="552" fillId="553" borderId="552" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="553" fillId="554" borderId="553" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="554" fillId="555" borderId="554" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="555" fillId="556" borderId="555" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="556" fillId="557" borderId="556" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="557" fillId="558" borderId="557" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="558" fillId="559" borderId="558" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="559" fillId="560" borderId="559" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="560" fillId="561" borderId="560" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="561" fillId="562" borderId="561" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="562" fillId="563" borderId="562" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="563" fillId="564" borderId="563" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="564" fillId="565" borderId="564" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="565" fillId="566" borderId="565" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="566" fillId="567" borderId="566" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="567" fillId="568" borderId="567" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="568" fillId="569" borderId="568" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="569" fillId="570" borderId="569" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="570" fillId="571" borderId="570" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="571" fillId="572" borderId="571" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="572" fillId="573" borderId="572" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="573" fillId="574" borderId="573" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="574" fillId="575" borderId="574" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -8188,1643 +9598,1925 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="E1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="F1" t="s" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="6">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="C2" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="D2" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="9">
+      <c r="E2" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="F2" t="s" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="11">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="C3" t="s" s="14">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="D3" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="E3" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="15">
+      <c r="F3" t="s" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="16">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="17">
+      <c r="C4" t="s" s="20">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="18">
+      <c r="D4" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="19">
+      <c r="E4" t="s" s="22">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="20">
+      <c r="F4" t="s" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="21">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="22">
+      <c r="C5" t="s" s="26">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="23">
+      <c r="D5" t="s" s="27">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="24">
+      <c r="E5" t="s" s="28">
         <v>8</v>
       </c>
-      <c r="E5" t="s" s="25">
+      <c r="F5" t="s" s="29">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="26">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="31">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="27">
+      <c r="C6" t="s" s="32">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="28">
+      <c r="D6" t="s" s="33">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="29">
+      <c r="E6" t="s" s="34">
         <v>8</v>
       </c>
-      <c r="E6" t="s" s="30">
+      <c r="F6" t="s" s="35">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="31">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="37">
         <v>18</v>
       </c>
-      <c r="B7" t="s" s="32">
+      <c r="C7" t="s" s="38">
         <v>19</v>
       </c>
-      <c r="C7" t="s" s="33">
+      <c r="D7" t="s" s="39">
         <v>7</v>
       </c>
-      <c r="D7" t="s" s="34">
+      <c r="E7" t="s" s="40">
         <v>8</v>
       </c>
-      <c r="E7" t="s" s="35">
+      <c r="F7" t="s" s="41">
         <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="36">
+      <c r="A8" s="42">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="43">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="37">
+      <c r="C8" t="s" s="44">
         <v>21</v>
       </c>
-      <c r="C8" t="s" s="38">
+      <c r="D8" t="s" s="45">
         <v>7</v>
       </c>
-      <c r="D8" t="s" s="39">
+      <c r="E8" t="s" s="46">
         <v>8</v>
       </c>
-      <c r="E8" t="s" s="40">
+      <c r="F8" t="s" s="47">
         <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="41">
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="49">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="42">
+      <c r="C9" t="s" s="50">
         <v>23</v>
       </c>
-      <c r="C9" t="s" s="43">
+      <c r="D9" t="s" s="51">
         <v>7</v>
       </c>
-      <c r="D9" t="s" s="44">
+      <c r="E9" t="s" s="52">
         <v>8</v>
       </c>
-      <c r="E9" t="s" s="45">
+      <c r="F9" t="s" s="53">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="46">
+      <c r="A10" s="54">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="55">
         <v>24</v>
       </c>
-      <c r="B10" t="s" s="47">
+      <c r="C10" t="s" s="56">
         <v>25</v>
       </c>
-      <c r="C10" t="s" s="48">
+      <c r="D10" t="s" s="57">
         <v>7</v>
       </c>
-      <c r="D10" t="s" s="49">
+      <c r="E10" t="s" s="58">
         <v>8</v>
       </c>
-      <c r="E10" t="s" s="50">
+      <c r="F10" t="s" s="59">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="51">
+      <c r="A11" s="60">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="61">
         <v>26</v>
       </c>
-      <c r="B11" t="s" s="52">
+      <c r="C11" t="s" s="62">
         <v>27</v>
       </c>
-      <c r="C11" t="s" s="53">
+      <c r="D11" t="s" s="63">
         <v>7</v>
       </c>
-      <c r="D11" t="s" s="54">
+      <c r="E11" t="s" s="64">
         <v>8</v>
       </c>
-      <c r="E11" t="s" s="55">
+      <c r="F11" t="s" s="65">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="56">
+      <c r="A12" s="66">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="67">
         <v>28</v>
       </c>
-      <c r="B12" t="s" s="57">
+      <c r="C12" t="s" s="68">
         <v>29</v>
       </c>
-      <c r="C12" t="s" s="58">
+      <c r="D12" t="s" s="69">
         <v>7</v>
       </c>
-      <c r="D12" t="s" s="59">
+      <c r="E12" t="s" s="70">
         <v>8</v>
       </c>
-      <c r="E12" t="s" s="60">
+      <c r="F12" t="s" s="71">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="61">
+      <c r="A13" s="72">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="73">
         <v>30</v>
       </c>
-      <c r="B13" t="s" s="62">
+      <c r="C13" t="s" s="74">
         <v>31</v>
       </c>
-      <c r="C13" t="s" s="63">
+      <c r="D13" t="s" s="75">
         <v>7</v>
       </c>
-      <c r="D13" t="s" s="64">
+      <c r="E13" t="s" s="76">
         <v>8</v>
       </c>
-      <c r="E13" t="s" s="65">
+      <c r="F13" t="s" s="77">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="66">
+      <c r="A14" s="78">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="79">
         <v>32</v>
       </c>
-      <c r="B14" t="s" s="67">
+      <c r="C14" t="s" s="80">
         <v>33</v>
       </c>
-      <c r="C14" t="s" s="68">
+      <c r="D14" t="s" s="81">
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="69">
+      <c r="E14" t="s" s="82">
         <v>8</v>
       </c>
-      <c r="E14" t="s" s="70">
+      <c r="F14" t="s" s="83">
         <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="71">
+      <c r="A15" s="84">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="85">
         <v>34</v>
       </c>
-      <c r="B15" t="s" s="72">
+      <c r="C15" t="s" s="86">
         <v>35</v>
       </c>
-      <c r="C15" t="s" s="73">
+      <c r="D15" t="s" s="87">
         <v>7</v>
       </c>
-      <c r="D15" t="s" s="74">
+      <c r="E15" t="s" s="88">
         <v>8</v>
       </c>
-      <c r="E15" t="s" s="75">
+      <c r="F15" t="s" s="89">
         <v>9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="76">
+      <c r="A16" s="90">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="91">
         <v>36</v>
       </c>
-      <c r="B16" t="s" s="77">
+      <c r="C16" t="s" s="92">
         <v>37</v>
       </c>
-      <c r="C16" t="s" s="78">
+      <c r="D16" t="s" s="93">
         <v>7</v>
       </c>
-      <c r="D16" t="s" s="79">
+      <c r="E16" t="s" s="94">
         <v>8</v>
       </c>
-      <c r="E16" t="s" s="80">
+      <c r="F16" t="s" s="95">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="81">
+      <c r="A17" s="96">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="97">
         <v>38</v>
       </c>
-      <c r="B17" t="s" s="82">
+      <c r="C17" t="s" s="98">
         <v>39</v>
       </c>
-      <c r="C17" t="s" s="83">
+      <c r="D17" t="s" s="99">
         <v>7</v>
       </c>
-      <c r="D17" t="s" s="84">
+      <c r="E17" t="s" s="100">
         <v>8</v>
       </c>
-      <c r="E17" t="s" s="85">
+      <c r="F17" t="s" s="101">
         <v>9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="86">
+      <c r="A18" s="102">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="103">
         <v>40</v>
       </c>
-      <c r="B18" t="s" s="87">
+      <c r="C18" t="s" s="104">
         <v>41</v>
       </c>
-      <c r="C18" t="s" s="88">
+      <c r="D18" t="s" s="105">
         <v>7</v>
       </c>
-      <c r="D18" t="s" s="89">
+      <c r="E18" t="s" s="106">
         <v>8</v>
       </c>
-      <c r="E18" t="s" s="90">
+      <c r="F18" t="s" s="107">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="91">
+      <c r="A19" s="108">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="109">
         <v>42</v>
       </c>
-      <c r="B19" t="s" s="92">
+      <c r="C19" t="s" s="110">
         <v>43</v>
       </c>
-      <c r="C19" t="s" s="93">
+      <c r="D19" t="s" s="111">
         <v>7</v>
       </c>
-      <c r="D19" t="s" s="94">
+      <c r="E19" t="s" s="112">
         <v>8</v>
       </c>
-      <c r="E19" t="s" s="95">
+      <c r="F19" t="s" s="113">
         <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="96">
+      <c r="A20" s="114">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="115">
         <v>44</v>
       </c>
-      <c r="B20" t="s" s="97">
+      <c r="C20" t="s" s="116">
         <v>45</v>
       </c>
-      <c r="C20" t="s" s="98">
+      <c r="D20" t="s" s="117">
         <v>7</v>
       </c>
-      <c r="D20" t="s" s="99">
+      <c r="E20" t="s" s="118">
         <v>8</v>
       </c>
-      <c r="E20" t="s" s="100">
+      <c r="F20" t="s" s="119">
         <v>9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="101">
+      <c r="A21" s="120">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="121">
         <v>46</v>
       </c>
-      <c r="B21" t="s" s="102">
+      <c r="C21" t="s" s="122">
         <v>47</v>
       </c>
-      <c r="C21" t="s" s="103">
+      <c r="D21" t="s" s="123">
         <v>7</v>
       </c>
-      <c r="D21" t="s" s="104">
+      <c r="E21" t="s" s="124">
         <v>8</v>
       </c>
-      <c r="E21" t="s" s="105">
+      <c r="F21" t="s" s="125">
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="106">
+      <c r="A22" s="126">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="127">
         <v>48</v>
       </c>
-      <c r="B22" t="s" s="107">
+      <c r="C22" t="s" s="128">
         <v>49</v>
       </c>
-      <c r="C22" t="s" s="108">
+      <c r="D22" t="s" s="129">
         <v>7</v>
       </c>
-      <c r="D22" t="s" s="109">
+      <c r="E22" t="s" s="130">
         <v>8</v>
       </c>
-      <c r="E22" t="s" s="110">
+      <c r="F22" t="s" s="131">
         <v>9</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="111">
+      <c r="A23" s="132">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="133">
         <v>50</v>
       </c>
-      <c r="B23" t="s" s="112">
+      <c r="C23" t="s" s="134">
         <v>51</v>
       </c>
-      <c r="C23" t="s" s="113">
+      <c r="D23" t="s" s="135">
         <v>7</v>
       </c>
-      <c r="D23" t="s" s="114">
+      <c r="E23" t="s" s="136">
         <v>8</v>
       </c>
-      <c r="E23" t="s" s="115">
+      <c r="F23" t="s" s="137">
         <v>9</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="116">
+      <c r="A24" s="138">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="139">
         <v>52</v>
       </c>
-      <c r="B24" t="s" s="117">
+      <c r="C24" t="s" s="140">
         <v>53</v>
       </c>
-      <c r="C24" t="s" s="118">
+      <c r="D24" t="s" s="141">
         <v>7</v>
       </c>
-      <c r="D24" t="s" s="119">
+      <c r="E24" t="s" s="142">
         <v>8</v>
       </c>
-      <c r="E24" t="s" s="120">
+      <c r="F24" t="s" s="143">
         <v>9</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="121">
+      <c r="A25" s="144">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="145">
         <v>54</v>
       </c>
-      <c r="B25" t="s" s="122">
+      <c r="C25" t="s" s="146">
         <v>55</v>
       </c>
-      <c r="C25" t="s" s="123">
+      <c r="D25" t="s" s="147">
         <v>7</v>
       </c>
-      <c r="D25" t="s" s="124">
+      <c r="E25" t="s" s="148">
         <v>8</v>
       </c>
-      <c r="E25" t="s" s="125">
+      <c r="F25" t="s" s="149">
         <v>9</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="126">
+      <c r="A26" s="150">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="151">
         <v>56</v>
       </c>
-      <c r="B26" t="s" s="127">
+      <c r="C26" t="s" s="152">
         <v>57</v>
       </c>
-      <c r="C26" t="s" s="128">
+      <c r="D26" t="s" s="153">
         <v>7</v>
       </c>
-      <c r="D26" t="s" s="129">
+      <c r="E26" t="s" s="154">
         <v>8</v>
       </c>
-      <c r="E26" t="s" s="130">
+      <c r="F26" t="s" s="155">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="131">
+      <c r="A27" s="156">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="157">
         <v>58</v>
       </c>
-      <c r="B27" t="s" s="132">
+      <c r="C27" t="s" s="158">
         <v>59</v>
       </c>
-      <c r="C27" t="s" s="133">
+      <c r="D27" t="s" s="159">
         <v>7</v>
       </c>
-      <c r="D27" t="s" s="134">
+      <c r="E27" t="s" s="160">
         <v>8</v>
       </c>
-      <c r="E27" t="s" s="135">
+      <c r="F27" t="s" s="161">
         <v>9</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="136">
+      <c r="A28" s="162">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="163">
         <v>60</v>
       </c>
-      <c r="B28" t="s" s="137">
+      <c r="C28" t="s" s="164">
         <v>61</v>
       </c>
-      <c r="C28" t="s" s="138">
+      <c r="D28" t="s" s="165">
         <v>7</v>
       </c>
-      <c r="D28" t="s" s="139">
+      <c r="E28" t="s" s="166">
         <v>8</v>
       </c>
-      <c r="E28" t="s" s="140">
+      <c r="F28" t="s" s="167">
         <v>9</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="141">
+      <c r="A29" s="168">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="169">
         <v>62</v>
       </c>
-      <c r="B29" t="s" s="142">
+      <c r="C29" t="s" s="170">
         <v>63</v>
       </c>
-      <c r="C29" t="s" s="143">
+      <c r="D29" t="s" s="171">
         <v>7</v>
       </c>
-      <c r="D29" t="s" s="144">
+      <c r="E29" t="s" s="172">
         <v>8</v>
       </c>
-      <c r="E29" t="s" s="145">
+      <c r="F29" t="s" s="173">
         <v>9</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="146">
+      <c r="A30" s="174">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="175">
         <v>64</v>
       </c>
-      <c r="B30" t="s" s="147">
+      <c r="C30" t="s" s="176">
         <v>65</v>
       </c>
-      <c r="C30" t="s" s="148">
+      <c r="D30" t="s" s="177">
         <v>7</v>
       </c>
-      <c r="D30" t="s" s="149">
+      <c r="E30" t="s" s="178">
         <v>8</v>
       </c>
-      <c r="E30" t="s" s="150">
+      <c r="F30" t="s" s="179">
         <v>9</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="151">
+      <c r="A31" s="180">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s" s="181">
         <v>66</v>
       </c>
-      <c r="B31" t="s" s="152">
+      <c r="C31" t="s" s="182">
         <v>67</v>
       </c>
-      <c r="C31" t="s" s="153">
+      <c r="D31" t="s" s="183">
         <v>7</v>
       </c>
-      <c r="D31" t="s" s="154">
+      <c r="E31" t="s" s="184">
         <v>8</v>
       </c>
-      <c r="E31" t="s" s="155">
+      <c r="F31" t="s" s="185">
         <v>9</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="156">
+      <c r="A32" s="186">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s" s="187">
         <v>68</v>
       </c>
-      <c r="B32" t="s" s="157">
+      <c r="C32" t="s" s="188">
         <v>69</v>
       </c>
-      <c r="C32" t="s" s="158">
+      <c r="D32" t="s" s="189">
         <v>7</v>
       </c>
-      <c r="D32" t="s" s="159">
+      <c r="E32" t="s" s="190">
         <v>8</v>
       </c>
-      <c r="E32" t="s" s="160">
+      <c r="F32" t="s" s="191">
         <v>9</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="161">
+      <c r="A33" s="192">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s" s="193">
         <v>70</v>
       </c>
-      <c r="B33" t="s" s="162">
+      <c r="C33" t="s" s="194">
         <v>71</v>
       </c>
-      <c r="C33" t="s" s="163">
+      <c r="D33" t="s" s="195">
         <v>7</v>
       </c>
-      <c r="D33" t="s" s="164">
+      <c r="E33" t="s" s="196">
         <v>72</v>
       </c>
-      <c r="E33" t="s" s="165">
+      <c r="F33" t="s" s="197">
         <v>9</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="166">
+      <c r="A34" s="198">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s" s="199">
         <v>73</v>
       </c>
-      <c r="B34" t="s" s="167">
+      <c r="C34" t="s" s="200">
         <v>74</v>
       </c>
-      <c r="C34" t="s" s="168">
+      <c r="D34" t="s" s="201">
         <v>7</v>
       </c>
-      <c r="D34" t="s" s="169">
+      <c r="E34" t="s" s="202">
         <v>8</v>
       </c>
-      <c r="E34" t="s" s="170">
+      <c r="F34" t="s" s="203">
         <v>9</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="171">
+      <c r="A35" s="204">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s" s="205">
         <v>75</v>
       </c>
-      <c r="B35" t="s" s="172">
+      <c r="C35" t="s" s="206">
         <v>76</v>
       </c>
-      <c r="C35" t="s" s="173">
+      <c r="D35" t="s" s="207">
         <v>7</v>
       </c>
-      <c r="D35" t="s" s="174">
+      <c r="E35" t="s" s="208">
         <v>8</v>
       </c>
-      <c r="E35" t="s" s="175">
+      <c r="F35" t="s" s="209">
         <v>9</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="176">
+      <c r="A36" s="210">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s" s="211">
         <v>77</v>
       </c>
-      <c r="B36" t="s" s="177">
+      <c r="C36" t="s" s="212">
         <v>78</v>
       </c>
-      <c r="C36" t="s" s="178">
+      <c r="D36" t="s" s="213">
         <v>7</v>
       </c>
-      <c r="D36" t="s" s="179">
+      <c r="E36" t="s" s="214">
         <v>8</v>
       </c>
-      <c r="E36" t="s" s="180">
+      <c r="F36" t="s" s="215">
         <v>9</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="181">
+      <c r="A37" s="216">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="217">
         <v>79</v>
       </c>
-      <c r="B37" t="s" s="182">
+      <c r="C37" t="s" s="218">
         <v>80</v>
       </c>
-      <c r="C37" t="s" s="183">
+      <c r="D37" t="s" s="219">
         <v>7</v>
       </c>
-      <c r="D37" t="s" s="184">
+      <c r="E37" t="s" s="220">
         <v>8</v>
       </c>
-      <c r="E37" t="s" s="185">
+      <c r="F37" t="s" s="221">
         <v>9</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="186">
+      <c r="A38" s="222">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s" s="223">
         <v>81</v>
       </c>
-      <c r="B38" t="s" s="187">
+      <c r="C38" t="s" s="224">
         <v>82</v>
       </c>
-      <c r="C38" t="s" s="188">
+      <c r="D38" t="s" s="225">
         <v>7</v>
       </c>
-      <c r="D38" t="s" s="189">
+      <c r="E38" t="s" s="226">
         <v>8</v>
       </c>
-      <c r="E38" t="s" s="190">
+      <c r="F38" t="s" s="227">
         <v>9</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="191">
+      <c r="A39" s="228">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="229">
         <v>83</v>
       </c>
-      <c r="B39" t="s" s="192">
+      <c r="C39" t="s" s="230">
         <v>84</v>
       </c>
-      <c r="C39" t="s" s="193">
+      <c r="D39" t="s" s="231">
         <v>7</v>
       </c>
-      <c r="D39" t="s" s="194">
+      <c r="E39" t="s" s="232">
         <v>8</v>
       </c>
-      <c r="E39" t="s" s="195">
+      <c r="F39" t="s" s="233">
         <v>9</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="196">
+      <c r="A40" s="234">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s" s="235">
         <v>85</v>
       </c>
-      <c r="B40" t="s" s="197">
+      <c r="C40" t="s" s="236">
         <v>86</v>
       </c>
-      <c r="C40" t="s" s="198">
+      <c r="D40" t="s" s="237">
         <v>7</v>
       </c>
-      <c r="D40" t="s" s="199">
+      <c r="E40" t="s" s="238">
         <v>8</v>
       </c>
-      <c r="E40" t="s" s="200">
+      <c r="F40" t="s" s="239">
         <v>9</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="201">
+      <c r="A41" s="240">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s" s="241">
         <v>87</v>
       </c>
-      <c r="B41" t="s" s="202">
+      <c r="C41" t="s" s="242">
         <v>88</v>
       </c>
-      <c r="C41" t="s" s="203">
+      <c r="D41" t="s" s="243">
         <v>7</v>
       </c>
-      <c r="D41" t="s" s="204">
+      <c r="E41" t="s" s="244">
         <v>8</v>
       </c>
-      <c r="E41" t="s" s="205">
+      <c r="F41" t="s" s="245">
         <v>9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="206">
+      <c r="A42" s="246">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s" s="247">
         <v>89</v>
       </c>
-      <c r="B42" t="s" s="207">
+      <c r="C42" t="s" s="248">
         <v>90</v>
       </c>
-      <c r="C42" t="s" s="208">
+      <c r="D42" t="s" s="249">
         <v>7</v>
       </c>
-      <c r="D42" t="s" s="209">
+      <c r="E42" t="s" s="250">
         <v>8</v>
       </c>
-      <c r="E42" t="s" s="210">
+      <c r="F42" t="s" s="251">
         <v>9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="211">
+      <c r="A43" s="252">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s" s="253">
         <v>91</v>
       </c>
-      <c r="B43" t="s" s="212">
+      <c r="C43" t="s" s="254">
         <v>92</v>
       </c>
-      <c r="C43" t="s" s="213">
+      <c r="D43" t="s" s="255">
         <v>7</v>
       </c>
-      <c r="D43" t="s" s="214">
+      <c r="E43" t="s" s="256">
         <v>8</v>
       </c>
-      <c r="E43" t="s" s="215">
+      <c r="F43" t="s" s="257">
         <v>9</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="216">
+      <c r="A44" s="258">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s" s="259">
         <v>93</v>
       </c>
-      <c r="B44" t="s" s="217">
+      <c r="C44" t="s" s="260">
         <v>94</v>
       </c>
-      <c r="C44" t="s" s="218">
+      <c r="D44" t="s" s="261">
         <v>7</v>
       </c>
-      <c r="D44" t="s" s="219">
+      <c r="E44" t="s" s="262">
         <v>8</v>
       </c>
-      <c r="E44" t="s" s="220">
+      <c r="F44" t="s" s="263">
         <v>9</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="221">
+      <c r="A45" s="264">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s" s="265">
         <v>95</v>
       </c>
-      <c r="B45" t="s" s="222">
+      <c r="C45" t="s" s="266">
         <v>96</v>
       </c>
-      <c r="C45" t="s" s="223">
+      <c r="D45" t="s" s="267">
         <v>7</v>
       </c>
-      <c r="D45" t="s" s="224">
+      <c r="E45" t="s" s="268">
         <v>8</v>
       </c>
-      <c r="E45" t="s" s="225">
+      <c r="F45" t="s" s="269">
         <v>9</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="226">
+      <c r="A46" s="270">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s" s="271">
         <v>97</v>
       </c>
-      <c r="B46" t="s" s="227">
+      <c r="C46" t="s" s="272">
         <v>98</v>
       </c>
-      <c r="C46" t="s" s="228">
+      <c r="D46" t="s" s="273">
         <v>7</v>
       </c>
-      <c r="D46" t="s" s="229">
+      <c r="E46" t="s" s="274">
         <v>8</v>
       </c>
-      <c r="E46" t="s" s="230">
+      <c r="F46" t="s" s="275">
         <v>9</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="231">
+      <c r="A47" s="276">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s" s="277">
         <v>99</v>
       </c>
-      <c r="B47" t="s" s="232">
+      <c r="C47" t="s" s="278">
         <v>100</v>
       </c>
-      <c r="C47" t="s" s="233">
+      <c r="D47" t="s" s="279">
         <v>7</v>
       </c>
-      <c r="D47" t="s" s="234">
+      <c r="E47" t="s" s="280">
         <v>8</v>
       </c>
-      <c r="E47" t="s" s="235">
+      <c r="F47" t="s" s="281">
         <v>9</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="236">
+      <c r="A48" s="282">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s" s="283">
         <v>101</v>
       </c>
-      <c r="B48" t="s" s="237">
+      <c r="C48" t="s" s="284">
         <v>102</v>
       </c>
-      <c r="C48" t="s" s="238">
+      <c r="D48" t="s" s="285">
         <v>7</v>
       </c>
-      <c r="D48" t="s" s="239">
+      <c r="E48" t="s" s="286">
         <v>8</v>
       </c>
-      <c r="E48" t="s" s="240">
+      <c r="F48" t="s" s="287">
         <v>9</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="241">
+      <c r="A49" s="288">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s" s="289">
         <v>103</v>
       </c>
-      <c r="B49" t="s" s="242">
+      <c r="C49" t="s" s="290">
         <v>104</v>
       </c>
-      <c r="C49" t="s" s="243">
+      <c r="D49" t="s" s="291">
         <v>7</v>
       </c>
-      <c r="D49" t="s" s="244">
+      <c r="E49" t="s" s="292">
         <v>8</v>
       </c>
-      <c r="E49" t="s" s="245">
+      <c r="F49" t="s" s="293">
         <v>9</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="246">
+      <c r="A50" s="294">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s" s="295">
         <v>105</v>
       </c>
-      <c r="B50" t="s" s="247">
+      <c r="C50" t="s" s="296">
         <v>106</v>
       </c>
-      <c r="C50" t="s" s="248">
+      <c r="D50" t="s" s="297">
         <v>7</v>
       </c>
-      <c r="D50" t="s" s="249">
+      <c r="E50" t="s" s="298">
         <v>8</v>
       </c>
-      <c r="E50" t="s" s="250">
+      <c r="F50" t="s" s="299">
         <v>9</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="251">
+      <c r="A51" s="300">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s" s="301">
         <v>107</v>
       </c>
-      <c r="B51" t="s" s="252">
+      <c r="C51" t="s" s="302">
         <v>108</v>
       </c>
-      <c r="C51" t="s" s="253">
+      <c r="D51" t="s" s="303">
         <v>7</v>
       </c>
-      <c r="D51" t="s" s="254">
+      <c r="E51" t="s" s="304">
         <v>8</v>
       </c>
-      <c r="E51" t="s" s="255">
+      <c r="F51" t="s" s="305">
         <v>9</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="256">
+      <c r="A52" s="306">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s" s="307">
         <v>109</v>
       </c>
-      <c r="B52" t="s" s="257">
+      <c r="C52" t="s" s="308">
         <v>110</v>
       </c>
-      <c r="C52" t="s" s="258">
+      <c r="D52" t="s" s="309">
         <v>7</v>
       </c>
-      <c r="D52" t="s" s="259">
+      <c r="E52" t="s" s="310">
         <v>8</v>
       </c>
-      <c r="E52" t="s" s="260">
+      <c r="F52" t="s" s="311">
         <v>9</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="261">
+      <c r="A53" s="312">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s" s="313">
         <v>111</v>
       </c>
-      <c r="B53" t="s" s="262">
+      <c r="C53" t="s" s="314">
         <v>112</v>
       </c>
-      <c r="C53" t="s" s="263">
+      <c r="D53" t="s" s="315">
         <v>7</v>
       </c>
-      <c r="D53" t="s" s="264">
+      <c r="E53" t="s" s="316">
         <v>8</v>
       </c>
-      <c r="E53" t="s" s="265">
+      <c r="F53" t="s" s="317">
         <v>9</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="266">
+      <c r="A54" s="318">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s" s="319">
         <v>113</v>
       </c>
-      <c r="B54" t="s" s="267">
+      <c r="C54" t="s" s="320">
         <v>114</v>
       </c>
-      <c r="C54" t="s" s="268">
+      <c r="D54" t="s" s="321">
         <v>7</v>
       </c>
-      <c r="D54" t="s" s="269">
+      <c r="E54" t="s" s="322">
         <v>8</v>
       </c>
-      <c r="E54" t="s" s="270">
+      <c r="F54" t="s" s="323">
         <v>9</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="271">
+      <c r="A55" s="324">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s" s="325">
         <v>115</v>
       </c>
-      <c r="B55" t="s" s="272">
+      <c r="C55" t="s" s="326">
         <v>116</v>
       </c>
-      <c r="C55" t="s" s="273">
+      <c r="D55" t="s" s="327">
         <v>7</v>
       </c>
-      <c r="D55" t="s" s="274">
+      <c r="E55" t="s" s="328">
         <v>8</v>
       </c>
-      <c r="E55" t="s" s="275">
+      <c r="F55" t="s" s="329">
         <v>9</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="276">
+      <c r="A56" s="330">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s" s="331">
         <v>117</v>
       </c>
-      <c r="B56" t="s" s="277">
+      <c r="C56" t="s" s="332">
         <v>118</v>
       </c>
-      <c r="C56" t="s" s="278">
+      <c r="D56" t="s" s="333">
         <v>7</v>
       </c>
-      <c r="D56" t="s" s="279">
+      <c r="E56" t="s" s="334">
         <v>8</v>
       </c>
-      <c r="E56" t="s" s="280">
+      <c r="F56" t="s" s="335">
         <v>9</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="281">
+      <c r="A57" s="336">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s" s="337">
         <v>119</v>
       </c>
-      <c r="B57" t="s" s="282">
+      <c r="C57" t="s" s="338">
         <v>120</v>
       </c>
-      <c r="C57" t="s" s="283">
+      <c r="D57" t="s" s="339">
         <v>7</v>
       </c>
-      <c r="D57" t="s" s="284">
+      <c r="E57" t="s" s="340">
         <v>8</v>
       </c>
-      <c r="E57" t="s" s="285">
+      <c r="F57" t="s" s="341">
         <v>9</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="286">
+      <c r="A58" s="342">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s" s="343">
         <v>121</v>
       </c>
-      <c r="B58" t="s" s="287">
+      <c r="C58" t="s" s="344">
         <v>122</v>
       </c>
-      <c r="C58" t="s" s="288">
+      <c r="D58" t="s" s="345">
         <v>7</v>
       </c>
-      <c r="D58" t="s" s="289">
+      <c r="E58" t="s" s="346">
         <v>8</v>
       </c>
-      <c r="E58" t="s" s="290">
+      <c r="F58" t="s" s="347">
         <v>9</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="291">
+      <c r="A59" s="348">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s" s="349">
         <v>123</v>
       </c>
-      <c r="B59" t="s" s="292">
+      <c r="C59" t="s" s="350">
         <v>124</v>
       </c>
-      <c r="C59" t="s" s="293">
+      <c r="D59" t="s" s="351">
         <v>7</v>
       </c>
-      <c r="D59" t="s" s="294">
+      <c r="E59" t="s" s="352">
         <v>8</v>
       </c>
-      <c r="E59" t="s" s="295">
+      <c r="F59" t="s" s="353">
         <v>9</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="296">
+      <c r="A60" s="354">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s" s="355">
         <v>125</v>
       </c>
-      <c r="B60" t="s" s="297">
+      <c r="C60" t="s" s="356">
         <v>126</v>
       </c>
-      <c r="C60" t="s" s="298">
+      <c r="D60" t="s" s="357">
         <v>7</v>
       </c>
-      <c r="D60" t="s" s="299">
+      <c r="E60" t="s" s="358">
         <v>8</v>
       </c>
-      <c r="E60" t="s" s="300">
+      <c r="F60" t="s" s="359">
         <v>9</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="301">
+      <c r="A61" s="360">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s" s="361">
         <v>127</v>
       </c>
-      <c r="B61" t="s" s="302">
+      <c r="C61" t="s" s="362">
         <v>128</v>
       </c>
-      <c r="C61" t="s" s="303">
+      <c r="D61" t="s" s="363">
         <v>7</v>
       </c>
-      <c r="D61" t="s" s="304">
+      <c r="E61" t="s" s="364">
         <v>8</v>
       </c>
-      <c r="E61" t="s" s="305">
+      <c r="F61" t="s" s="365">
         <v>9</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="306">
+      <c r="A62" s="366">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s" s="367">
         <v>129</v>
       </c>
-      <c r="B62" t="s" s="307">
+      <c r="C62" t="s" s="368">
         <v>130</v>
       </c>
-      <c r="C62" t="s" s="308">
+      <c r="D62" t="s" s="369">
         <v>7</v>
       </c>
-      <c r="D62" t="s" s="309">
+      <c r="E62" t="s" s="370">
         <v>8</v>
       </c>
-      <c r="E62" t="s" s="310">
+      <c r="F62" t="s" s="371">
         <v>9</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="311">
+      <c r="A63" s="372">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s" s="373">
         <v>131</v>
       </c>
-      <c r="B63" t="s" s="312">
+      <c r="C63" t="s" s="374">
         <v>132</v>
       </c>
-      <c r="C63" t="s" s="313">
+      <c r="D63" t="s" s="375">
         <v>7</v>
       </c>
-      <c r="D63" t="s" s="314">
+      <c r="E63" t="s" s="376">
         <v>8</v>
       </c>
-      <c r="E63" t="s" s="315">
+      <c r="F63" t="s" s="377">
         <v>9</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="316">
+      <c r="A64" s="378">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s" s="379">
         <v>133</v>
       </c>
-      <c r="B64" t="s" s="317">
+      <c r="C64" t="s" s="380">
         <v>134</v>
       </c>
-      <c r="C64" t="s" s="318">
+      <c r="D64" t="s" s="381">
         <v>7</v>
       </c>
-      <c r="D64" t="s" s="319">
+      <c r="E64" t="s" s="382">
         <v>8</v>
       </c>
-      <c r="E64" t="s" s="320">
+      <c r="F64" t="s" s="383">
         <v>9</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="321">
+      <c r="A65" s="384">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s" s="385">
         <v>135</v>
       </c>
-      <c r="B65" t="s" s="322">
+      <c r="C65" t="s" s="386">
         <v>136</v>
       </c>
-      <c r="C65" t="s" s="323">
+      <c r="D65" t="s" s="387">
         <v>7</v>
       </c>
-      <c r="D65" t="s" s="324">
+      <c r="E65" t="s" s="388">
         <v>8</v>
       </c>
-      <c r="E65" t="s" s="325">
+      <c r="F65" t="s" s="389">
         <v>9</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="326">
+      <c r="A66" s="390">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s" s="391">
         <v>137</v>
       </c>
-      <c r="B66" t="s" s="327">
+      <c r="C66" t="s" s="392">
         <v>138</v>
       </c>
-      <c r="C66" t="s" s="328">
+      <c r="D66" t="s" s="393">
         <v>7</v>
       </c>
-      <c r="D66" t="s" s="329">
+      <c r="E66" t="s" s="394">
         <v>8</v>
       </c>
-      <c r="E66" t="s" s="330">
+      <c r="F66" t="s" s="395">
         <v>9</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="331">
+      <c r="A67" s="396">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s" s="397">
         <v>139</v>
       </c>
-      <c r="B67" t="s" s="332">
+      <c r="C67" t="s" s="398">
         <v>140</v>
       </c>
-      <c r="C67" t="s" s="333">
+      <c r="D67" t="s" s="399">
         <v>7</v>
       </c>
-      <c r="D67" t="s" s="334">
+      <c r="E67" t="s" s="400">
         <v>8</v>
       </c>
-      <c r="E67" t="s" s="335">
+      <c r="F67" t="s" s="401">
         <v>9</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="336">
+      <c r="A68" s="402">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s" s="403">
         <v>141</v>
       </c>
-      <c r="B68" t="s" s="337">
+      <c r="C68" t="s" s="404">
         <v>142</v>
       </c>
-      <c r="C68" t="s" s="338">
+      <c r="D68" t="s" s="405">
         <v>7</v>
       </c>
-      <c r="D68" t="s" s="339">
+      <c r="E68" t="s" s="406">
         <v>8</v>
       </c>
-      <c r="E68" t="s" s="340">
+      <c r="F68" t="s" s="407">
         <v>9</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="341">
+      <c r="A69" s="408">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s" s="409">
         <v>143</v>
       </c>
-      <c r="B69" t="s" s="342">
+      <c r="C69" t="s" s="410">
         <v>144</v>
       </c>
-      <c r="C69" t="s" s="343">
+      <c r="D69" t="s" s="411">
         <v>7</v>
       </c>
-      <c r="D69" t="s" s="344">
+      <c r="E69" t="s" s="412">
         <v>8</v>
       </c>
-      <c r="E69" t="s" s="345">
+      <c r="F69" t="s" s="413">
         <v>9</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="346">
+      <c r="A70" s="414">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s" s="415">
         <v>145</v>
       </c>
-      <c r="B70" t="s" s="347">
+      <c r="C70" t="s" s="416">
         <v>146</v>
       </c>
-      <c r="C70" t="s" s="348">
+      <c r="D70" t="s" s="417">
         <v>7</v>
       </c>
-      <c r="D70" t="s" s="349">
+      <c r="E70" t="s" s="418">
         <v>8</v>
       </c>
-      <c r="E70" t="s" s="350">
+      <c r="F70" t="s" s="419">
         <v>9</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="351">
+      <c r="A71" s="420">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s" s="421">
         <v>147</v>
       </c>
-      <c r="B71" t="s" s="352">
+      <c r="C71" t="s" s="422">
         <v>148</v>
       </c>
-      <c r="C71" t="s" s="353">
+      <c r="D71" t="s" s="423">
         <v>7</v>
       </c>
-      <c r="D71" t="s" s="354">
+      <c r="E71" t="s" s="424">
         <v>8</v>
       </c>
-      <c r="E71" t="s" s="355">
+      <c r="F71" t="s" s="425">
         <v>9</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="356">
+      <c r="A72" s="426">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s" s="427">
         <v>149</v>
       </c>
-      <c r="B72" t="s" s="357">
+      <c r="C72" t="s" s="428">
         <v>150</v>
       </c>
-      <c r="C72" t="s" s="358">
+      <c r="D72" t="s" s="429">
         <v>7</v>
       </c>
-      <c r="D72" t="s" s="359">
+      <c r="E72" t="s" s="430">
         <v>8</v>
       </c>
-      <c r="E72" t="s" s="360">
+      <c r="F72" t="s" s="431">
         <v>9</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="361">
+      <c r="A73" s="432">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s" s="433">
         <v>151</v>
       </c>
-      <c r="B73" t="s" s="362">
+      <c r="C73" t="s" s="434">
         <v>152</v>
       </c>
-      <c r="C73" t="s" s="363">
+      <c r="D73" t="s" s="435">
         <v>7</v>
       </c>
-      <c r="D73" t="s" s="364">
+      <c r="E73" t="s" s="436">
         <v>8</v>
       </c>
-      <c r="E73" t="s" s="365">
+      <c r="F73" t="s" s="437">
         <v>9</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="366">
+      <c r="A74" s="438">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s" s="439">
         <v>153</v>
       </c>
-      <c r="B74" t="s" s="367">
+      <c r="C74" t="s" s="440">
         <v>154</v>
       </c>
-      <c r="C74" t="s" s="368">
+      <c r="D74" t="s" s="441">
         <v>7</v>
       </c>
-      <c r="D74" t="s" s="369">
+      <c r="E74" t="s" s="442">
         <v>8</v>
       </c>
-      <c r="E74" t="s" s="370">
+      <c r="F74" t="s" s="443">
         <v>9</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="371">
+      <c r="A75" s="444">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s" s="445">
         <v>155</v>
       </c>
-      <c r="B75" t="s" s="372">
+      <c r="C75" t="s" s="446">
         <v>156</v>
       </c>
-      <c r="C75" t="s" s="373">
+      <c r="D75" t="s" s="447">
         <v>7</v>
       </c>
-      <c r="D75" t="s" s="374">
+      <c r="E75" t="s" s="448">
         <v>8</v>
       </c>
-      <c r="E75" t="s" s="375">
+      <c r="F75" t="s" s="449">
         <v>9</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="376">
+      <c r="A76" s="450">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s" s="451">
         <v>157</v>
       </c>
-      <c r="B76" t="s" s="377">
+      <c r="C76" t="s" s="452">
         <v>158</v>
       </c>
-      <c r="C76" t="s" s="378">
+      <c r="D76" t="s" s="453">
         <v>7</v>
       </c>
-      <c r="D76" t="s" s="379">
+      <c r="E76" t="s" s="454">
         <v>8</v>
       </c>
-      <c r="E76" t="s" s="380">
+      <c r="F76" t="s" s="455">
         <v>9</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="381">
+      <c r="A77" s="456">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s" s="457">
         <v>159</v>
       </c>
-      <c r="B77" t="s" s="382">
+      <c r="C77" t="s" s="458">
         <v>160</v>
       </c>
-      <c r="C77" t="s" s="383">
+      <c r="D77" t="s" s="459">
         <v>7</v>
       </c>
-      <c r="D77" t="s" s="384">
+      <c r="E77" t="s" s="460">
         <v>8</v>
       </c>
-      <c r="E77" t="s" s="385">
+      <c r="F77" t="s" s="461">
         <v>9</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="386">
+      <c r="A78" s="462">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s" s="463">
         <v>161</v>
       </c>
-      <c r="B78" t="s" s="387">
+      <c r="C78" t="s" s="464">
         <v>162</v>
       </c>
-      <c r="C78" t="s" s="388">
+      <c r="D78" t="s" s="465">
         <v>7</v>
       </c>
-      <c r="D78" t="s" s="389">
+      <c r="E78" t="s" s="466">
         <v>8</v>
       </c>
-      <c r="E78" t="s" s="390">
+      <c r="F78" t="s" s="467">
         <v>9</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="391">
+      <c r="A79" s="468">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s" s="469">
         <v>163</v>
       </c>
-      <c r="B79" t="s" s="392">
+      <c r="C79" t="s" s="470">
         <v>164</v>
       </c>
-      <c r="C79" t="s" s="393">
+      <c r="D79" t="s" s="471">
         <v>7</v>
       </c>
-      <c r="D79" t="s" s="394">
+      <c r="E79" t="s" s="472">
         <v>8</v>
       </c>
-      <c r="E79" t="s" s="395">
+      <c r="F79" t="s" s="473">
         <v>9</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="396">
+      <c r="A80" s="474">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s" s="475">
         <v>165</v>
       </c>
-      <c r="B80" t="s" s="397">
+      <c r="C80" t="s" s="476">
         <v>166</v>
       </c>
-      <c r="C80" t="s" s="398">
+      <c r="D80" t="s" s="477">
         <v>7</v>
       </c>
-      <c r="D80" t="s" s="399">
+      <c r="E80" t="s" s="478">
         <v>8</v>
       </c>
-      <c r="E80" t="s" s="400">
+      <c r="F80" t="s" s="479">
         <v>9</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="401">
+      <c r="A81" s="480">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s" s="481">
         <v>167</v>
       </c>
-      <c r="B81" t="s" s="402">
+      <c r="C81" t="s" s="482">
         <v>168</v>
       </c>
-      <c r="C81" t="s" s="403">
+      <c r="D81" t="s" s="483">
         <v>7</v>
       </c>
-      <c r="D81" t="s" s="404">
+      <c r="E81" t="s" s="484">
         <v>8</v>
       </c>
-      <c r="E81" t="s" s="405">
+      <c r="F81" t="s" s="485">
         <v>9</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="406">
+      <c r="A82" s="486">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s" s="487">
         <v>169</v>
       </c>
-      <c r="B82" t="s" s="407">
+      <c r="C82" t="s" s="488">
         <v>170</v>
       </c>
-      <c r="C82" t="s" s="408">
+      <c r="D82" t="s" s="489">
         <v>7</v>
       </c>
-      <c r="D82" t="s" s="409">
+      <c r="E82" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="E82" t="s" s="410">
+      <c r="F82" t="s" s="491">
         <v>9</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="411">
+      <c r="A83" s="492">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s" s="493">
         <v>171</v>
       </c>
-      <c r="B83" t="s" s="412">
+      <c r="C83" t="s" s="494">
         <v>172</v>
       </c>
-      <c r="C83" t="s" s="413">
+      <c r="D83" t="s" s="495">
         <v>7</v>
       </c>
-      <c r="D83" t="s" s="414">
+      <c r="E83" t="s" s="496">
         <v>8</v>
       </c>
-      <c r="E83" t="s" s="415">
+      <c r="F83" t="s" s="497">
         <v>9</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="416">
+      <c r="A84" s="498">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s" s="499">
         <v>173</v>
       </c>
-      <c r="B84" t="s" s="417">
+      <c r="C84" t="s" s="500">
         <v>174</v>
       </c>
-      <c r="C84" t="s" s="418">
+      <c r="D84" t="s" s="501">
         <v>7</v>
       </c>
-      <c r="D84" t="s" s="419">
+      <c r="E84" t="s" s="502">
         <v>8</v>
       </c>
-      <c r="E84" t="s" s="420">
+      <c r="F84" t="s" s="503">
         <v>9</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="421">
+      <c r="A85" s="504">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s" s="505">
         <v>175</v>
       </c>
-      <c r="B85" t="s" s="422">
+      <c r="C85" t="s" s="506">
         <v>176</v>
       </c>
-      <c r="C85" t="s" s="423">
+      <c r="D85" t="s" s="507">
         <v>7</v>
       </c>
-      <c r="D85" t="s" s="424">
+      <c r="E85" t="s" s="508">
         <v>8</v>
       </c>
-      <c r="E85" t="s" s="425">
+      <c r="F85" t="s" s="509">
         <v>9</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="426">
+      <c r="A86" s="510">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s" s="511">
         <v>177</v>
       </c>
-      <c r="B86" t="s" s="427">
+      <c r="C86" t="s" s="512">
         <v>178</v>
       </c>
-      <c r="C86" t="s" s="428">
+      <c r="D86" t="s" s="513">
         <v>7</v>
       </c>
-      <c r="D86" t="s" s="429">
+      <c r="E86" t="s" s="514">
         <v>8</v>
       </c>
-      <c r="E86" t="s" s="430">
+      <c r="F86" t="s" s="515">
         <v>9</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="431">
+      <c r="A87" s="516">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s" s="517">
         <v>179</v>
       </c>
-      <c r="B87" t="s" s="432">
+      <c r="C87" t="s" s="518">
         <v>180</v>
       </c>
-      <c r="C87" t="s" s="433">
+      <c r="D87" t="s" s="519">
         <v>7</v>
       </c>
-      <c r="D87" t="s" s="434">
+      <c r="E87" t="s" s="520">
         <v>8</v>
       </c>
-      <c r="E87" t="s" s="435">
+      <c r="F87" t="s" s="521">
         <v>9</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="436">
+      <c r="A88" s="522">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s" s="523">
         <v>181</v>
       </c>
-      <c r="B88" t="s" s="437">
+      <c r="C88" t="s" s="524">
         <v>182</v>
       </c>
-      <c r="C88" t="s" s="438">
+      <c r="D88" t="s" s="525">
         <v>7</v>
       </c>
-      <c r="D88" t="s" s="439">
+      <c r="E88" t="s" s="526">
         <v>8</v>
       </c>
-      <c r="E88" t="s" s="440">
+      <c r="F88" t="s" s="527">
         <v>9</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="441">
+      <c r="A89" s="528">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s" s="529">
         <v>183</v>
       </c>
-      <c r="B89" t="s" s="442">
+      <c r="C89" t="s" s="530">
         <v>184</v>
       </c>
-      <c r="C89" t="s" s="443">
+      <c r="D89" t="s" s="531">
         <v>7</v>
       </c>
-      <c r="D89" t="s" s="444">
+      <c r="E89" t="s" s="532">
         <v>8</v>
       </c>
-      <c r="E89" t="s" s="445">
+      <c r="F89" t="s" s="533">
         <v>9</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="446">
+      <c r="A90" s="534">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s" s="535">
         <v>185</v>
       </c>
-      <c r="B90" t="s" s="447">
+      <c r="C90" t="s" s="536">
         <v>186</v>
       </c>
-      <c r="C90" t="s" s="448">
+      <c r="D90" t="s" s="537">
         <v>7</v>
       </c>
-      <c r="D90" t="s" s="449">
+      <c r="E90" t="s" s="538">
         <v>8</v>
       </c>
-      <c r="E90" t="s" s="450">
+      <c r="F90" t="s" s="539">
         <v>9</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="451">
+      <c r="A91" s="540">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s" s="541">
         <v>187</v>
       </c>
-      <c r="B91" t="s" s="452">
+      <c r="C91" t="s" s="542">
         <v>188</v>
       </c>
-      <c r="C91" t="s" s="453">
+      <c r="D91" t="s" s="543">
         <v>7</v>
       </c>
-      <c r="D91" t="s" s="454">
+      <c r="E91" t="s" s="544">
         <v>189</v>
       </c>
-      <c r="E91" t="s" s="455">
+      <c r="F91" t="s" s="545">
         <v>9</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="456">
+      <c r="A92" s="546">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s" s="547">
         <v>190</v>
       </c>
-      <c r="B92" t="s" s="457">
+      <c r="C92" t="s" s="548">
         <v>191</v>
       </c>
-      <c r="C92" t="s" s="458">
+      <c r="D92" t="s" s="549">
         <v>7</v>
       </c>
-      <c r="D92" t="s" s="459">
+      <c r="E92" t="s" s="550">
         <v>8</v>
       </c>
-      <c r="E92" t="s" s="460">
+      <c r="F92" t="s" s="551">
         <v>9</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="461">
+      <c r="A93" s="552">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s" s="553">
         <v>192</v>
       </c>
-      <c r="B93" t="s" s="462">
+      <c r="C93" t="s" s="554">
         <v>193</v>
       </c>
-      <c r="C93" t="s" s="463">
+      <c r="D93" t="s" s="555">
         <v>7</v>
       </c>
-      <c r="D93" t="s" s="464">
+      <c r="E93" t="s" s="556">
         <v>8</v>
       </c>
-      <c r="E93" t="s" s="465">
+      <c r="F93" t="s" s="557">
         <v>9</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="466">
+      <c r="A94" s="558">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s" s="559">
         <v>194</v>
       </c>
-      <c r="B94" t="s" s="467">
+      <c r="C94" t="s" s="560">
         <v>195</v>
       </c>
-      <c r="C94" t="s" s="468">
+      <c r="D94" t="s" s="561">
         <v>7</v>
       </c>
-      <c r="D94" t="s" s="469">
+      <c r="E94" t="s" s="562">
         <v>8</v>
       </c>
-      <c r="E94" t="s" s="470">
+      <c r="F94" t="s" s="563">
         <v>9</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="471">
+      <c r="A95" s="564">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s" s="565">
         <v>196</v>
       </c>
-      <c r="B95" t="s" s="472">
+      <c r="C95" t="s" s="566">
         <v>197</v>
       </c>
-      <c r="C95" t="s" s="473">
+      <c r="D95" t="s" s="567">
         <v>7</v>
       </c>
-      <c r="D95" t="s" s="474">
+      <c r="E95" t="s" s="568">
         <v>8</v>
       </c>
-      <c r="E95" t="s" s="475">
+      <c r="F95" t="s" s="569">
         <v>9</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="476">
+      <c r="B96" t="s" s="570">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s" s="571">
         <v>198</v>
       </c>
-      <c r="B96" t="s" s="477">
+      <c r="D96" t="s" s="572">
         <v>9</v>
       </c>
-      <c r="C96" t="s" s="478">
+      <c r="E96" t="s" s="573">
         <v>9</v>
       </c>
-      <c r="D96" t="s" s="479">
+      <c r="F96" t="s" s="574">
         <v>199</v>
-      </c>
-      <c r="E96" t="s" s="480">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
